--- a/Documents/DFU_Summary/WAUSI_Summary_Calculation.xlsx
+++ b/Documents/DFU_Summary/WAUSI_Summary_Calculation.xlsx
@@ -2371,7 +2371,7 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>In progress</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="D25" s="3" t="n">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>Withdrawn (SAE)</t>
+          <t>In progress</t>
         </is>
       </c>
       <c r="D28" s="3" t="n">
@@ -10874,7 +10874,7 @@
       </c>
       <c r="C160" s="3" t="inlineStr">
         <is>
-          <t>In progress</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="D160" s="3" t="n">
@@ -10942,8 +10942,16 @@
           <t>05-07-2023</t>
         </is>
       </c>
-      <c r="S160" s="3" t="n"/>
-      <c r="T160" s="3" t="n"/>
+      <c r="S160" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="T160" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="U160" s="3" t="n">
         <v>10</v>
       </c>
@@ -11128,12 +11136,36 @@
           <t>17-07-2023</t>
         </is>
       </c>
-      <c r="N163" s="3" t="n"/>
-      <c r="O163" s="3" t="n"/>
-      <c r="P163" s="3" t="n"/>
-      <c r="Q163" s="3" t="n"/>
-      <c r="R163" s="3" t="n"/>
-      <c r="S163" s="3" t="n"/>
+      <c r="N163" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="O163" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="P163" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="Q163" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="R163" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="S163" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="T163" s="3" t="n"/>
       <c r="U163" s="3" t="n">
         <v>5</v>
@@ -11261,8 +11293,16 @@
           <t>17-07-2023</t>
         </is>
       </c>
-      <c r="M165" s="3" t="n"/>
-      <c r="N165" s="3" t="n"/>
+      <c r="M165" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="N165" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="O165" s="3" t="n"/>
       <c r="P165" s="3" t="n"/>
       <c r="Q165" s="3" t="n"/>
@@ -11402,8 +11442,16 @@
           <t>21-07-2023</t>
         </is>
       </c>
-      <c r="P167" s="3" t="n"/>
-      <c r="Q167" s="3" t="n"/>
+      <c r="P167" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="Q167" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="R167" s="3" t="n"/>
       <c r="S167" s="3" t="n"/>
       <c r="T167" s="3" t="n"/>
@@ -11465,9 +11513,21 @@
           <t>21-07-2023</t>
         </is>
       </c>
-      <c r="N168" s="3" t="n"/>
-      <c r="O168" s="3" t="n"/>
-      <c r="P168" s="3" t="n"/>
+      <c r="N168" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="O168" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="P168" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="Q168" s="3" t="n"/>
       <c r="R168" s="3" t="n"/>
       <c r="S168" s="3" t="n"/>
@@ -11525,10 +11585,26 @@
           <t>18-07-2023</t>
         </is>
       </c>
-      <c r="M169" s="3" t="n"/>
-      <c r="N169" s="3" t="n"/>
-      <c r="O169" s="3" t="n"/>
-      <c r="P169" s="3" t="n"/>
+      <c r="M169" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="N169" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="O169" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="P169" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="Q169" s="3" t="n"/>
       <c r="R169" s="3" t="n"/>
       <c r="S169" s="3" t="n"/>
@@ -11571,10 +11647,26 @@
           <t>19-07-2023</t>
         </is>
       </c>
-      <c r="J170" s="3" t="n"/>
-      <c r="K170" s="3" t="n"/>
-      <c r="L170" s="3" t="n"/>
-      <c r="M170" s="3" t="n"/>
+      <c r="J170" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="K170" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="L170" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="M170" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="N170" s="3" t="n"/>
       <c r="O170" s="3" t="n"/>
       <c r="P170" s="3" t="n"/>
@@ -11620,10 +11712,26 @@
           <t>20-07-2023</t>
         </is>
       </c>
-      <c r="J171" s="3" t="n"/>
-      <c r="K171" s="3" t="n"/>
-      <c r="L171" s="3" t="n"/>
-      <c r="M171" s="3" t="n"/>
+      <c r="J171" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="K171" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="L171" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="M171" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="N171" s="3" t="n"/>
       <c r="O171" s="3" t="n"/>
       <c r="P171" s="3" t="n"/>
@@ -12816,13 +12924,13 @@
         <v>0</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G17" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
@@ -12873,13 +12981,13 @@
         <v>4</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G18" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
@@ -12966,13 +13074,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G19" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
@@ -13051,13 +13159,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G20" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
@@ -13100,13 +13208,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G21" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
@@ -13161,13 +13269,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G22" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
@@ -13222,13 +13330,13 @@
         <v>4</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G23" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
@@ -13510,13 +13618,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G27" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
@@ -13577,20 +13685,20 @@
         </is>
       </c>
       <c r="D28" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="G28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F28" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3" t="n">
-        <v>4</v>
-      </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
           <t>12-05-2023</t>
@@ -13613,7 +13721,7 @@
       </c>
       <c r="M28" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>30-06-2023</t>
         </is>
       </c>
       <c r="N28" s="3" t="n"/>
@@ -13624,7 +13732,7 @@
       <c r="S28" s="3" t="n"/>
       <c r="T28" s="3" t="n"/>
       <c r="U28" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -13642,13 +13750,13 @@
         </is>
       </c>
       <c r="D29" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3" t="n">
         <v>21</v>
-      </c>
-      <c r="E29" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="F29" s="3" t="n">
-        <v>12</v>
       </c>
       <c r="G29" s="3" t="n">
         <v>0</v>
@@ -13688,36 +13796,36 @@
       </c>
       <c r="O29" s="3" t="inlineStr">
         <is>
+          <t>05-07-2023</t>
+        </is>
+      </c>
+      <c r="P29" s="3" t="inlineStr">
+        <is>
+          <t>15-07-2023</t>
+        </is>
+      </c>
+      <c r="Q29" s="3" t="inlineStr">
+        <is>
           <t>not_match</t>
         </is>
       </c>
-      <c r="P29" s="3" t="inlineStr">
+      <c r="R29" s="3" t="inlineStr">
         <is>
           <t>not_match</t>
         </is>
       </c>
-      <c r="Q29" s="3" t="inlineStr">
+      <c r="S29" s="3" t="inlineStr">
         <is>
           <t>not_match</t>
         </is>
       </c>
-      <c r="R29" s="3" t="inlineStr">
+      <c r="T29" s="3" t="inlineStr">
         <is>
           <t>not_match</t>
         </is>
       </c>
-      <c r="S29" s="3" t="inlineStr">
-        <is>
-          <t>not_match</t>
-        </is>
-      </c>
-      <c r="T29" s="3" t="inlineStr">
-        <is>
-          <t>not_match</t>
-        </is>
-      </c>
       <c r="U29" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -13735,10 +13843,10 @@
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F30" s="3" t="n">
         <v>12</v>
@@ -13747,7 +13855,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
@@ -13766,7 +13874,7 @@
       </c>
       <c r="L30" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>30-06-2023</t>
         </is>
       </c>
       <c r="M30" s="3" t="n"/>
@@ -13778,7 +13886,7 @@
       <c r="S30" s="3" t="n"/>
       <c r="T30" s="3" t="n"/>
       <c r="U30" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -13796,20 +13904,20 @@
         </is>
       </c>
       <c r="D31" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="E31" s="3" t="n">
+      <c r="G31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F31" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3" t="n">
-        <v>4</v>
-      </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
           <t>17-05-2023</t>
@@ -13832,7 +13940,7 @@
       </c>
       <c r="M31" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>30-06-2023</t>
         </is>
       </c>
       <c r="N31" s="3" t="n"/>
@@ -13843,7 +13951,7 @@
       <c r="S31" s="3" t="n"/>
       <c r="T31" s="3" t="n"/>
       <c r="U31" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -13861,13 +13969,13 @@
         </is>
       </c>
       <c r="D32" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="n">
         <v>12</v>
-      </c>
-      <c r="E32" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="F32" s="3" t="n">
-        <v>4</v>
       </c>
       <c r="G32" s="3" t="n">
         <v>0</v>
@@ -13892,12 +14000,12 @@
       </c>
       <c r="L32" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>30-06-2023</t>
         </is>
       </c>
       <c r="M32" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>14-07-2023</t>
         </is>
       </c>
       <c r="N32" s="3" t="inlineStr">
@@ -13912,7 +14020,7 @@
       <c r="S32" s="3" t="n"/>
       <c r="T32" s="3" t="n"/>
       <c r="U32" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -13936,13 +14044,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G33" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
@@ -14001,13 +14109,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G34" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
@@ -14052,20 +14160,20 @@
         </is>
       </c>
       <c r="D35" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="E35" s="3" t="n">
+      <c r="G35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3" t="n">
-        <v>20</v>
-      </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
           <t>31-05-2023</t>
@@ -14093,12 +14201,12 @@
       </c>
       <c r="N35" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>05-07-2023</t>
         </is>
       </c>
       <c r="O35" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>12-07-2023</t>
         </is>
       </c>
       <c r="P35" s="3" t="inlineStr">
@@ -14115,7 +14223,7 @@
       <c r="S35" s="3" t="n"/>
       <c r="T35" s="3" t="n"/>
       <c r="U35" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -14133,20 +14241,20 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="E36" s="3" t="n">
+      <c r="G36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="F36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3" t="n">
-        <v>16</v>
-      </c>
       <c r="I36" s="3" t="inlineStr">
         <is>
           <t>07-06-2023</t>
@@ -14169,12 +14277,12 @@
       </c>
       <c r="M36" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>05-07-2023</t>
         </is>
       </c>
       <c r="N36" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>12-07-2023</t>
         </is>
       </c>
       <c r="O36" s="3" t="inlineStr">
@@ -14200,7 +14308,7 @@
       <c r="S36" s="3" t="n"/>
       <c r="T36" s="3" t="n"/>
       <c r="U36" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -14224,13 +14332,13 @@
         <v>0</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G37" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I37" s="3" t="inlineStr">
         <is>
@@ -14271,19 +14379,19 @@
         </is>
       </c>
       <c r="D38" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E38" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E38" s="3" t="n">
-        <v>12</v>
-      </c>
       <c r="F38" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G38" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I38" s="3" t="inlineStr">
         <is>
@@ -14297,12 +14405,12 @@
       </c>
       <c r="K38" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>10-07-2023</t>
         </is>
       </c>
       <c r="L38" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>17-07-2023</t>
         </is>
       </c>
       <c r="M38" s="3" t="inlineStr">
@@ -14334,7 +14442,7 @@
       <c r="S38" s="3" t="n"/>
       <c r="T38" s="3" t="n"/>
       <c r="U38" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -14358,13 +14466,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G39" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I39" s="3" t="inlineStr">
         <is>
@@ -14404,24 +14512,34 @@
           <t>In progress</t>
         </is>
       </c>
-      <c r="D40" s="3" t="n"/>
-      <c r="E40" s="3" t="n"/>
-      <c r="F40" s="3" t="n"/>
-      <c r="G40" s="3" t="n"/>
-      <c r="H40" s="3" t="n"/>
+      <c r="D40" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>12</v>
+      </c>
       <c r="I40" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>05-07-2023</t>
         </is>
       </c>
       <c r="J40" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>12-07-2023</t>
         </is>
       </c>
       <c r="K40" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>19-07-2023</t>
         </is>
       </c>
       <c r="L40" s="3" t="inlineStr">
@@ -14449,7 +14567,9 @@
       <c r="R40" s="3" t="n"/>
       <c r="S40" s="3" t="n"/>
       <c r="T40" s="3" t="n"/>
-      <c r="U40" s="3" t="n"/>
+      <c r="U40" s="3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
@@ -14472,13 +14592,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G41" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="inlineStr">
         <is>
@@ -14525,13 +14645,13 @@
         <v>0</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G42" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3" t="inlineStr">
         <is>
@@ -14590,13 +14710,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G43" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="inlineStr">
         <is>
@@ -14651,13 +14771,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="3" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G44" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="inlineStr">
         <is>
@@ -14720,13 +14840,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="3" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G45" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="inlineStr">
         <is>
@@ -14813,13 +14933,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="3" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G46" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3" t="inlineStr">
         <is>
@@ -14878,13 +14998,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="3" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G47" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3" t="inlineStr">
         <is>
@@ -14935,13 +15055,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="3" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G48" s="3" t="n">
         <v>1</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="inlineStr">
         <is>
@@ -15221,19 +15341,19 @@
         </is>
       </c>
       <c r="D52" s="3" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E52" s="3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G52" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I52" s="3" t="inlineStr">
         <is>
@@ -15247,12 +15367,12 @@
       </c>
       <c r="K52" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>19-07-2023</t>
         </is>
       </c>
       <c r="L52" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>11-08-2023</t>
         </is>
       </c>
       <c r="M52" s="3" t="inlineStr">
@@ -15268,7 +15388,7 @@
       <c r="S52" s="3" t="n"/>
       <c r="T52" s="3" t="n"/>
       <c r="U52" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -15286,19 +15406,19 @@
         </is>
       </c>
       <c r="D53" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F53" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="E53" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="F53" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="G53" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I53" s="3" t="inlineStr">
         <is>
@@ -15312,7 +15432,7 @@
       </c>
       <c r="K53" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>22-08-2023</t>
         </is>
       </c>
       <c r="L53" s="3" t="n"/>
@@ -15325,7 +15445,7 @@
       <c r="S53" s="3" t="n"/>
       <c r="T53" s="3" t="n"/>
       <c r="U53" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -15342,11 +15462,21 @@
           <t xml:space="preserve">Completed </t>
         </is>
       </c>
-      <c r="D54" s="3" t="n"/>
-      <c r="E54" s="3" t="n"/>
-      <c r="F54" s="3" t="n"/>
-      <c r="G54" s="3" t="n"/>
-      <c r="H54" s="3" t="n"/>
+      <c r="D54" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3" t="n">
+        <v>4</v>
+      </c>
       <c r="I54" s="3" t="inlineStr">
         <is>
           <t>not_match</t>
@@ -15354,7 +15484,7 @@
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>19-07-2023</t>
         </is>
       </c>
       <c r="K54" s="3" t="n"/>
@@ -15367,7 +15497,9 @@
       <c r="R54" s="3" t="n"/>
       <c r="S54" s="3" t="n"/>
       <c r="T54" s="3" t="n"/>
-      <c r="U54" s="3" t="n"/>
+      <c r="U54" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
@@ -15383,11 +15515,21 @@
           <t>In progress</t>
         </is>
       </c>
-      <c r="D55" s="3" t="n"/>
-      <c r="E55" s="3" t="n"/>
-      <c r="F55" s="3" t="n"/>
-      <c r="G55" s="3" t="n"/>
-      <c r="H55" s="3" t="n"/>
+      <c r="D55" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="3" t="n">
+        <v>8</v>
+      </c>
       <c r="I55" s="3" t="inlineStr">
         <is>
           <t>not_match</t>
@@ -15395,12 +15537,12 @@
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>19-07-2023</t>
         </is>
       </c>
       <c r="K55" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>04-08-2023</t>
         </is>
       </c>
       <c r="L55" s="3" t="n"/>
@@ -15412,7 +15554,9 @@
       <c r="R55" s="3" t="n"/>
       <c r="S55" s="3" t="n"/>
       <c r="T55" s="3" t="n"/>
-      <c r="U55" s="3" t="n"/>
+      <c r="U55" s="3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
@@ -15428,11 +15572,21 @@
           <t>Withdrawn (SAE)</t>
         </is>
       </c>
-      <c r="D56" s="3" t="n"/>
-      <c r="E56" s="3" t="n"/>
-      <c r="F56" s="3" t="n"/>
-      <c r="G56" s="3" t="n"/>
-      <c r="H56" s="3" t="n"/>
+      <c r="D56" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3" t="n">
+        <v>2</v>
+      </c>
       <c r="I56" s="3" t="inlineStr">
         <is>
           <t>not_match</t>
@@ -15440,7 +15594,7 @@
       </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>29-08-2023</t>
         </is>
       </c>
       <c r="K56" s="3" t="n"/>
@@ -15453,7 +15607,9 @@
       <c r="R56" s="3" t="n"/>
       <c r="S56" s="3" t="n"/>
       <c r="T56" s="3" t="n"/>
-      <c r="U56" s="3" t="n"/>
+      <c r="U56" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
@@ -15872,13 +16028,13 @@
         <v>0</v>
       </c>
       <c r="F65" s="3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G65" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I65" s="3" t="inlineStr">
         <is>
@@ -16029,19 +16185,19 @@
         </is>
       </c>
       <c r="D68" s="3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E68" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F68" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G68" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I68" s="3" t="inlineStr">
         <is>
@@ -16050,7 +16206,7 @@
       </c>
       <c r="J68" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>11-08-2023</t>
         </is>
       </c>
       <c r="K68" s="3" t="inlineStr">
@@ -16068,7 +16224,7 @@
       <c r="S68" s="3" t="n"/>
       <c r="T68" s="3" t="n"/>
       <c r="U68" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">

--- a/Documents/DFU_Summary/WAUSI_Summary_Calculation.xlsx
+++ b/Documents/DFU_Summary/WAUSI_Summary_Calculation.xlsx
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>506</v>
+        <v>690</v>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>4644</v>
+        <v>4828</v>
       </c>
       <c r="D8" s="3" t="n"/>
     </row>
@@ -610,7 +610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U171"/>
+  <dimension ref="A1:U176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5364,14 +5364,36 @@
       <c r="B68" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="C68" s="3" t="n"/>
-      <c r="D68" s="3" t="n"/>
-      <c r="E68" s="3" t="n"/>
-      <c r="F68" s="3" t="n"/>
-      <c r="G68" s="3" t="n"/>
-      <c r="H68" s="3" t="n"/>
-      <c r="I68" s="3" t="n"/>
-      <c r="J68" s="3" t="n"/>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>In progress</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E68" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I68" s="3" t="inlineStr">
+        <is>
+          <t>22-08-2023</t>
+        </is>
+      </c>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="K68" s="3" t="n"/>
       <c r="L68" s="3" t="n"/>
       <c r="M68" s="3" t="n"/>
@@ -5382,7 +5404,9 @@
       <c r="R68" s="3" t="n"/>
       <c r="S68" s="3" t="n"/>
       <c r="T68" s="3" t="n"/>
-      <c r="U68" s="3" t="n"/>
+      <c r="U68" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
@@ -5393,15 +5417,41 @@
       <c r="B69" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="C69" s="3" t="n"/>
-      <c r="D69" s="3" t="n"/>
-      <c r="E69" s="3" t="n"/>
-      <c r="F69" s="3" t="n"/>
-      <c r="G69" s="3" t="n"/>
-      <c r="H69" s="3" t="n"/>
-      <c r="I69" s="3" t="n"/>
-      <c r="J69" s="3" t="n"/>
-      <c r="K69" s="3" t="n"/>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>In progress</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I69" s="3" t="inlineStr">
+        <is>
+          <t>22-08-2023</t>
+        </is>
+      </c>
+      <c r="J69" s="3" t="inlineStr">
+        <is>
+          <t>30-08-2023</t>
+        </is>
+      </c>
+      <c r="K69" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="L69" s="3" t="n"/>
       <c r="M69" s="3" t="n"/>
       <c r="N69" s="3" t="n"/>
@@ -5411,7 +5461,9 @@
       <c r="R69" s="3" t="n"/>
       <c r="S69" s="3" t="n"/>
       <c r="T69" s="3" t="n"/>
-      <c r="U69" s="3" t="n"/>
+      <c r="U69" s="3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
@@ -5422,13 +5474,31 @@
       <c r="B70" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C70" s="3" t="n"/>
-      <c r="D70" s="3" t="n"/>
-      <c r="E70" s="3" t="n"/>
-      <c r="F70" s="3" t="n"/>
-      <c r="G70" s="3" t="n"/>
-      <c r="H70" s="3" t="n"/>
-      <c r="I70" s="3" t="n"/>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>In progress</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I70" s="3" t="inlineStr">
+        <is>
+          <t>22-08-2023</t>
+        </is>
+      </c>
       <c r="J70" s="3" t="n"/>
       <c r="K70" s="3" t="n"/>
       <c r="L70" s="3" t="n"/>
@@ -5440,7 +5510,9 @@
       <c r="R70" s="3" t="n"/>
       <c r="S70" s="3" t="n"/>
       <c r="T70" s="3" t="n"/>
-      <c r="U70" s="3" t="n"/>
+      <c r="U70" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
@@ -5451,15 +5523,41 @@
       <c r="B71" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C71" s="3" t="n"/>
-      <c r="D71" s="3" t="n"/>
-      <c r="E71" s="3" t="n"/>
-      <c r="F71" s="3" t="n"/>
-      <c r="G71" s="3" t="n"/>
-      <c r="H71" s="3" t="n"/>
-      <c r="I71" s="3" t="n"/>
-      <c r="J71" s="3" t="n"/>
-      <c r="K71" s="3" t="n"/>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>In progress</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I71" s="3" t="inlineStr">
+        <is>
+          <t>22-08-2023</t>
+        </is>
+      </c>
+      <c r="J71" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="K71" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="L71" s="3" t="n"/>
       <c r="M71" s="3" t="n"/>
       <c r="N71" s="3" t="n"/>
@@ -5469,7 +5567,9 @@
       <c r="R71" s="3" t="n"/>
       <c r="S71" s="3" t="n"/>
       <c r="T71" s="3" t="n"/>
-      <c r="U71" s="3" t="n"/>
+      <c r="U71" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
@@ -5480,13 +5580,31 @@
       <c r="B72" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="C72" s="3" t="n"/>
-      <c r="D72" s="3" t="n"/>
-      <c r="E72" s="3" t="n"/>
-      <c r="F72" s="3" t="n"/>
-      <c r="G72" s="3" t="n"/>
-      <c r="H72" s="3" t="n"/>
-      <c r="I72" s="3" t="n"/>
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>In progress</t>
+        </is>
+      </c>
+      <c r="D72" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E72" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I72" s="3" t="inlineStr">
+        <is>
+          <t>22-08-2023</t>
+        </is>
+      </c>
       <c r="J72" s="3" t="n"/>
       <c r="K72" s="3" t="n"/>
       <c r="L72" s="3" t="n"/>
@@ -5498,7 +5616,9 @@
       <c r="R72" s="3" t="n"/>
       <c r="S72" s="3" t="n"/>
       <c r="T72" s="3" t="n"/>
-      <c r="U72" s="3" t="n"/>
+      <c r="U72" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
@@ -9989,9 +10109,21 @@
           <t>21-08-2023</t>
         </is>
       </c>
-      <c r="N144" s="3" t="n"/>
-      <c r="O144" s="3" t="n"/>
-      <c r="P144" s="3" t="n"/>
+      <c r="N144" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="O144" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="P144" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="Q144" s="3" t="n"/>
       <c r="R144" s="3" t="n"/>
       <c r="S144" s="3" t="n"/>
@@ -10044,9 +10176,21 @@
           <t>21-08-2023</t>
         </is>
       </c>
-      <c r="L145" s="3" t="n"/>
-      <c r="M145" s="3" t="n"/>
-      <c r="N145" s="3" t="n"/>
+      <c r="L145" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="M145" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="N145" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="O145" s="3" t="n"/>
       <c r="P145" s="3" t="n"/>
       <c r="Q145" s="3" t="n"/>
@@ -10150,9 +10294,21 @@
           <t>15-08-2023</t>
         </is>
       </c>
-      <c r="L147" s="3" t="n"/>
-      <c r="M147" s="3" t="n"/>
-      <c r="N147" s="3" t="n"/>
+      <c r="L147" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="M147" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="N147" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="O147" s="3" t="n"/>
       <c r="P147" s="3" t="n"/>
       <c r="Q147" s="3" t="n"/>
@@ -10197,9 +10353,21 @@
           <t>15-08-2023</t>
         </is>
       </c>
-      <c r="J148" s="3" t="n"/>
-      <c r="K148" s="3" t="n"/>
-      <c r="L148" s="3" t="n"/>
+      <c r="J148" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="K148" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="L148" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="M148" s="3" t="n"/>
       <c r="N148" s="3" t="n"/>
       <c r="O148" s="3" t="n"/>
@@ -10241,9 +10409,21 @@
           <t>not match</t>
         </is>
       </c>
-      <c r="K149" s="3" t="n"/>
-      <c r="L149" s="3" t="n"/>
-      <c r="M149" s="3" t="n"/>
+      <c r="K149" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="L149" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="M149" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="N149" s="3" t="n"/>
       <c r="O149" s="3" t="n"/>
       <c r="P149" s="3" t="n"/>
@@ -10287,7 +10467,11 @@
           <t>16-08-2023</t>
         </is>
       </c>
-      <c r="J150" s="3" t="n"/>
+      <c r="J150" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="K150" s="3" t="n"/>
       <c r="L150" s="3" t="n"/>
       <c r="M150" s="3" t="n"/>
@@ -10870,7 +11054,7 @@
         </is>
       </c>
       <c r="B160" s="3" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C160" s="3" t="inlineStr">
         <is>
@@ -10878,7 +11062,7 @@
         </is>
       </c>
       <c r="D160" s="3" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E160" s="3" t="n">
         <v>0</v>
@@ -10890,7 +11074,7 @@
         <v>11</v>
       </c>
       <c r="H160" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I160" s="3" t="inlineStr">
         <is>
@@ -10944,16 +11128,16 @@
       </c>
       <c r="S160" s="3" t="inlineStr">
         <is>
-          <t>not match</t>
+          <t>03-08-2023</t>
         </is>
       </c>
       <c r="T160" s="3" t="inlineStr">
         <is>
-          <t>not match</t>
+          <t>15-08-2023</t>
         </is>
       </c>
       <c r="U160" s="3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161">
@@ -11089,7 +11273,7 @@
         </is>
       </c>
       <c r="B163" s="3" t="n">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="C163" s="3" t="inlineStr">
         <is>
@@ -11097,10 +11281,10 @@
         </is>
       </c>
       <c r="D163" s="3" t="n">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="E163" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F163" s="3" t="n">
         <v>25</v>
@@ -11109,7 +11293,7 @@
         <v>6</v>
       </c>
       <c r="H163" s="3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I163" s="3" t="inlineStr">
         <is>
@@ -11138,37 +11322,37 @@
       </c>
       <c r="N163" s="3" t="inlineStr">
         <is>
-          <t>not match</t>
+          <t>01-08-2023</t>
         </is>
       </c>
       <c r="O163" s="3" t="inlineStr">
         <is>
-          <t>not match</t>
+          <t>08-08-2023</t>
         </is>
       </c>
       <c r="P163" s="3" t="inlineStr">
         <is>
-          <t>not match</t>
+          <t>15-08-2023</t>
         </is>
       </c>
       <c r="Q163" s="3" t="inlineStr">
         <is>
-          <t>not match</t>
+          <t>22-08-2023</t>
         </is>
       </c>
       <c r="R163" s="3" t="inlineStr">
         <is>
-          <t>not match</t>
+          <t>29-08-2023</t>
         </is>
       </c>
       <c r="S163" s="3" t="inlineStr">
         <is>
-          <t>not match</t>
+          <t>05-09-2023</t>
         </is>
       </c>
       <c r="T163" s="3" t="n"/>
       <c r="U163" s="3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164">
@@ -11251,7 +11435,7 @@
         </is>
       </c>
       <c r="B165" s="3" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C165" s="3" t="inlineStr">
         <is>
@@ -11259,7 +11443,7 @@
         </is>
       </c>
       <c r="D165" s="3" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E165" s="3" t="n">
         <v>0</v>
@@ -11271,7 +11455,7 @@
         <v>1</v>
       </c>
       <c r="H165" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I165" s="3" t="inlineStr">
         <is>
@@ -11295,12 +11479,12 @@
       </c>
       <c r="M165" s="3" t="inlineStr">
         <is>
-          <t>not match</t>
+          <t>27-07-2023</t>
         </is>
       </c>
       <c r="N165" s="3" t="inlineStr">
         <is>
-          <t>not match</t>
+          <t>10-08-2023</t>
         </is>
       </c>
       <c r="O165" s="3" t="n"/>
@@ -11310,7 +11494,7 @@
       <c r="S165" s="3" t="n"/>
       <c r="T165" s="3" t="n"/>
       <c r="U165" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166">
@@ -11385,7 +11569,7 @@
         </is>
       </c>
       <c r="B167" s="3" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C167" s="3" t="inlineStr">
         <is>
@@ -11393,7 +11577,7 @@
         </is>
       </c>
       <c r="D167" s="3" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E167" s="3" t="n">
         <v>0</v>
@@ -11405,7 +11589,7 @@
         <v>0</v>
       </c>
       <c r="H167" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I167" s="3" t="inlineStr">
         <is>
@@ -11444,19 +11628,19 @@
       </c>
       <c r="P167" s="3" t="inlineStr">
         <is>
-          <t>not match</t>
+          <t>30-08-2023</t>
         </is>
       </c>
       <c r="Q167" s="3" t="inlineStr">
         <is>
-          <t>not match</t>
+          <t>05-09-2023</t>
         </is>
       </c>
       <c r="R167" s="3" t="n"/>
       <c r="S167" s="3" t="n"/>
       <c r="T167" s="3" t="n"/>
       <c r="U167" s="3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168">
@@ -11466,7 +11650,7 @@
         </is>
       </c>
       <c r="B168" s="3" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C168" s="3" t="inlineStr">
         <is>
@@ -11474,7 +11658,7 @@
         </is>
       </c>
       <c r="D168" s="3" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E168" s="3" t="n">
         <v>0</v>
@@ -11486,7 +11670,7 @@
         <v>0</v>
       </c>
       <c r="H168" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I168" s="3" t="inlineStr">
         <is>
@@ -11515,17 +11699,17 @@
       </c>
       <c r="N168" s="3" t="inlineStr">
         <is>
-          <t>not match</t>
+          <t>27-07-2023</t>
         </is>
       </c>
       <c r="O168" s="3" t="inlineStr">
         <is>
-          <t>not match</t>
+          <t>03-08-2023</t>
         </is>
       </c>
       <c r="P168" s="3" t="inlineStr">
         <is>
-          <t>not match</t>
+          <t>14-08-2023</t>
         </is>
       </c>
       <c r="Q168" s="3" t="n"/>
@@ -11533,7 +11717,7 @@
       <c r="S168" s="3" t="n"/>
       <c r="T168" s="3" t="n"/>
       <c r="U168" s="3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169">
@@ -11543,7 +11727,7 @@
         </is>
       </c>
       <c r="B169" s="3" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C169" s="3" t="inlineStr">
         <is>
@@ -11551,7 +11735,7 @@
         </is>
       </c>
       <c r="D169" s="3" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E169" s="3" t="n">
         <v>0</v>
@@ -11563,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="H169" s="3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I169" s="3" t="inlineStr">
         <is>
@@ -11587,22 +11771,22 @@
       </c>
       <c r="M169" s="3" t="inlineStr">
         <is>
-          <t>not match</t>
+          <t>31-07-2023</t>
         </is>
       </c>
       <c r="N169" s="3" t="inlineStr">
         <is>
-          <t>not match</t>
+          <t>08-08-2023</t>
         </is>
       </c>
       <c r="O169" s="3" t="inlineStr">
         <is>
-          <t>not match</t>
+          <t>21-08-2023</t>
         </is>
       </c>
       <c r="P169" s="3" t="inlineStr">
         <is>
-          <t>not match</t>
+          <t>04-09-2023</t>
         </is>
       </c>
       <c r="Q169" s="3" t="n"/>
@@ -11610,7 +11794,7 @@
       <c r="S169" s="3" t="n"/>
       <c r="T169" s="3" t="n"/>
       <c r="U169" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170">
@@ -11620,7 +11804,7 @@
         </is>
       </c>
       <c r="B170" s="3" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C170" s="3" t="inlineStr">
         <is>
@@ -11628,7 +11812,7 @@
         </is>
       </c>
       <c r="D170" s="3" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E170" s="3" t="n">
         <v>0</v>
@@ -11640,7 +11824,7 @@
         <v>0</v>
       </c>
       <c r="H170" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I170" s="3" t="inlineStr">
         <is>
@@ -11649,22 +11833,22 @@
       </c>
       <c r="J170" s="3" t="inlineStr">
         <is>
-          <t>not match</t>
+          <t>26-07-2023</t>
         </is>
       </c>
       <c r="K170" s="3" t="inlineStr">
         <is>
-          <t>not match</t>
+          <t>02-08-2023</t>
         </is>
       </c>
       <c r="L170" s="3" t="inlineStr">
         <is>
-          <t>not match</t>
+          <t>16-08-2023</t>
         </is>
       </c>
       <c r="M170" s="3" t="inlineStr">
         <is>
-          <t>not match</t>
+          <t>28-08-2023</t>
         </is>
       </c>
       <c r="N170" s="3" t="n"/>
@@ -11675,7 +11859,7 @@
       <c r="S170" s="3" t="n"/>
       <c r="T170" s="3" t="n"/>
       <c r="U170" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171">
@@ -11685,7 +11869,7 @@
         </is>
       </c>
       <c r="B171" s="3" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C171" s="3" t="inlineStr">
         <is>
@@ -11693,7 +11877,7 @@
         </is>
       </c>
       <c r="D171" s="3" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E171" s="3" t="n">
         <v>0</v>
@@ -11705,7 +11889,7 @@
         <v>0</v>
       </c>
       <c r="H171" s="3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I171" s="3" t="inlineStr">
         <is>
@@ -11714,22 +11898,22 @@
       </c>
       <c r="J171" s="3" t="inlineStr">
         <is>
-          <t>not match</t>
+          <t>27-07-2023</t>
         </is>
       </c>
       <c r="K171" s="3" t="inlineStr">
         <is>
-          <t>not match</t>
+          <t>10-08-2023</t>
         </is>
       </c>
       <c r="L171" s="3" t="inlineStr">
         <is>
-          <t>not match</t>
+          <t>18-08-2023</t>
         </is>
       </c>
       <c r="M171" s="3" t="inlineStr">
         <is>
-          <t>not match</t>
+          <t>04-09-2023</t>
         </is>
       </c>
       <c r="N171" s="3" t="n"/>
@@ -11740,6 +11924,243 @@
       <c r="S171" s="3" t="n"/>
       <c r="T171" s="3" t="n"/>
       <c r="U171" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="3" t="inlineStr">
+        <is>
+          <t>292-016</t>
+        </is>
+      </c>
+      <c r="B172" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C172" s="3" t="inlineStr">
+        <is>
+          <t>In progress</t>
+        </is>
+      </c>
+      <c r="D172" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E172" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="I172" s="3" t="inlineStr">
+        <is>
+          <t>03-08-2023</t>
+        </is>
+      </c>
+      <c r="J172" s="3" t="inlineStr">
+        <is>
+          <t>09-08-2023</t>
+        </is>
+      </c>
+      <c r="K172" s="3" t="n"/>
+      <c r="L172" s="3" t="n"/>
+      <c r="M172" s="3" t="n"/>
+      <c r="N172" s="3" t="n"/>
+      <c r="O172" s="3" t="n"/>
+      <c r="P172" s="3" t="n"/>
+      <c r="Q172" s="3" t="n"/>
+      <c r="R172" s="3" t="n"/>
+      <c r="S172" s="3" t="n"/>
+      <c r="T172" s="3" t="n"/>
+      <c r="U172" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="3" t="inlineStr">
+        <is>
+          <t>292-017</t>
+        </is>
+      </c>
+      <c r="B173" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C173" s="3" t="inlineStr">
+        <is>
+          <t>In progress</t>
+        </is>
+      </c>
+      <c r="D173" s="3" t="n"/>
+      <c r="E173" s="3" t="n"/>
+      <c r="F173" s="3" t="n"/>
+      <c r="G173" s="3" t="n"/>
+      <c r="H173" s="3" t="n"/>
+      <c r="I173" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="J173" s="3" t="n"/>
+      <c r="K173" s="3" t="n"/>
+      <c r="L173" s="3" t="n"/>
+      <c r="M173" s="3" t="n"/>
+      <c r="N173" s="3" t="n"/>
+      <c r="O173" s="3" t="n"/>
+      <c r="P173" s="3" t="n"/>
+      <c r="Q173" s="3" t="n"/>
+      <c r="R173" s="3" t="n"/>
+      <c r="S173" s="3" t="n"/>
+      <c r="T173" s="3" t="n"/>
+      <c r="U173" s="3" t="n"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="3" t="inlineStr">
+        <is>
+          <t>292-018</t>
+        </is>
+      </c>
+      <c r="B174" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C174" s="3" t="inlineStr">
+        <is>
+          <t>In progress</t>
+        </is>
+      </c>
+      <c r="D174" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E174" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="I174" s="3" t="inlineStr">
+        <is>
+          <t>06-09-2023</t>
+        </is>
+      </c>
+      <c r="J174" s="3" t="n"/>
+      <c r="K174" s="3" t="n"/>
+      <c r="L174" s="3" t="n"/>
+      <c r="M174" s="3" t="n"/>
+      <c r="N174" s="3" t="n"/>
+      <c r="O174" s="3" t="n"/>
+      <c r="P174" s="3" t="n"/>
+      <c r="Q174" s="3" t="n"/>
+      <c r="R174" s="3" t="n"/>
+      <c r="S174" s="3" t="n"/>
+      <c r="T174" s="3" t="n"/>
+      <c r="U174" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="3" t="inlineStr">
+        <is>
+          <t>292-019</t>
+        </is>
+      </c>
+      <c r="B175" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C175" s="3" t="inlineStr">
+        <is>
+          <t>In progress</t>
+        </is>
+      </c>
+      <c r="D175" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E175" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I175" s="3" t="inlineStr">
+        <is>
+          <t>07-09-2023</t>
+        </is>
+      </c>
+      <c r="J175" s="3" t="n"/>
+      <c r="K175" s="3" t="n"/>
+      <c r="L175" s="3" t="n"/>
+      <c r="M175" s="3" t="n"/>
+      <c r="N175" s="3" t="n"/>
+      <c r="O175" s="3" t="n"/>
+      <c r="P175" s="3" t="n"/>
+      <c r="Q175" s="3" t="n"/>
+      <c r="R175" s="3" t="n"/>
+      <c r="S175" s="3" t="n"/>
+      <c r="T175" s="3" t="n"/>
+      <c r="U175" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="3" t="inlineStr">
+        <is>
+          <t>292-020</t>
+        </is>
+      </c>
+      <c r="B176" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C176" s="3" t="inlineStr">
+        <is>
+          <t>In progress</t>
+        </is>
+      </c>
+      <c r="D176" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E176" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I176" s="3" t="inlineStr">
+        <is>
+          <t>07-09-2023</t>
+        </is>
+      </c>
+      <c r="J176" s="3" t="n"/>
+      <c r="K176" s="3" t="n"/>
+      <c r="L176" s="3" t="n"/>
+      <c r="M176" s="3" t="n"/>
+      <c r="N176" s="3" t="n"/>
+      <c r="O176" s="3" t="n"/>
+      <c r="P176" s="3" t="n"/>
+      <c r="Q176" s="3" t="n"/>
+      <c r="R176" s="3" t="n"/>
+      <c r="S176" s="3" t="n"/>
+      <c r="T176" s="3" t="n"/>
+      <c r="U176" s="3" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Documents/DFU_Summary/WAUSI_Summary_Calculation.xlsx
+++ b/Documents/DFU_Summary/WAUSI_Summary_Calculation.xlsx
@@ -2077,7 +2077,7 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Withdrawn</t>
         </is>
       </c>
       <c r="D19" s="3" t="n">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Withdrawn (SAE)</t>
         </is>
       </c>
       <c r="D21" s="3" t="n">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Withdrawn</t>
         </is>
       </c>
       <c r="D27" s="3" t="n">

--- a/Documents/DFU_Summary/WAUSI_Summary_Calculation.xlsx
+++ b/Documents/DFU_Summary/WAUSI_Summary_Calculation.xlsx
@@ -2776,10 +2776,10 @@
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F28" s="3" t="n">
         <v>24</v>
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
@@ -2807,25 +2807,41 @@
       </c>
       <c r="L28" s="3" t="inlineStr">
         <is>
+          <t>14-08-2023</t>
+        </is>
+      </c>
+      <c r="M28" s="3" t="inlineStr">
+        <is>
           <t>21-08-2023</t>
         </is>
       </c>
-      <c r="M28" s="3" t="n"/>
-      <c r="N28" s="3" t="n"/>
-      <c r="O28" s="3" t="n"/>
-      <c r="P28" s="3" t="n"/>
+      <c r="N28" s="3" t="inlineStr">
+        <is>
+          <t>28-08-2023</t>
+        </is>
+      </c>
+      <c r="O28" s="3" t="inlineStr">
+        <is>
+          <t>11-09-2023</t>
+        </is>
+      </c>
+      <c r="P28" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="Q28" s="3" t="n"/>
       <c r="R28" s="3" t="n"/>
       <c r="S28" s="3" t="n"/>
       <c r="T28" s="3" t="n"/>
       <c r="U28" s="3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V28" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W28" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2917,7 +2933,11 @@
           <t>11-09-2023</t>
         </is>
       </c>
-      <c r="J30" s="3" t="n"/>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="K30" s="3" t="n"/>
       <c r="L30" s="3" t="n"/>
       <c r="M30" s="3" t="n"/>
@@ -2932,10 +2952,10 @@
         <v>1</v>
       </c>
       <c r="V30" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="W30" s="3" t="n">
         <v>1</v>
-      </c>
-      <c r="W30" s="3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -11313,7 +11333,11 @@
           <t>11-09-2023</t>
         </is>
       </c>
-      <c r="Q145" s="3" t="n"/>
+      <c r="Q145" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="R145" s="3" t="n"/>
       <c r="S145" s="3" t="n"/>
       <c r="T145" s="3" t="n"/>
@@ -11321,10 +11345,10 @@
         <v>8</v>
       </c>
       <c r="V145" s="3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W145" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -11386,7 +11410,11 @@
           <t>11-09-2023</t>
         </is>
       </c>
-      <c r="O146" s="3" t="n"/>
+      <c r="O146" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="P146" s="3" t="n"/>
       <c r="Q146" s="3" t="n"/>
       <c r="R146" s="3" t="n"/>
@@ -11396,10 +11424,10 @@
         <v>6</v>
       </c>
       <c r="V146" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W146" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -11471,7 +11499,11 @@
           <t>11-09-2023</t>
         </is>
       </c>
-      <c r="Q147" s="3" t="n"/>
+      <c r="Q147" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="R147" s="3" t="n"/>
       <c r="S147" s="3" t="n"/>
       <c r="T147" s="3" t="n"/>
@@ -11479,10 +11511,10 @@
         <v>8</v>
       </c>
       <c r="V147" s="3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W147" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -11628,8 +11660,16 @@
           <t>05-09-2023</t>
         </is>
       </c>
-      <c r="P149" s="3" t="n"/>
-      <c r="Q149" s="3" t="n"/>
+      <c r="P149" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="Q149" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="R149" s="3" t="n"/>
       <c r="S149" s="3" t="n"/>
       <c r="T149" s="3" t="n"/>
@@ -11637,10 +11677,10 @@
         <v>7</v>
       </c>
       <c r="V149" s="3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W149" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -11712,7 +11752,11 @@
           <t>11-09-2023</t>
         </is>
       </c>
-      <c r="Q150" s="3" t="n"/>
+      <c r="Q150" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="R150" s="3" t="n"/>
       <c r="S150" s="3" t="n"/>
       <c r="T150" s="3" t="n"/>
@@ -11720,10 +11764,10 @@
         <v>8</v>
       </c>
       <c r="V150" s="3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W150" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -11785,7 +11829,11 @@
           <t>11-09-2023</t>
         </is>
       </c>
-      <c r="O151" s="3" t="n"/>
+      <c r="O151" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="P151" s="3" t="n"/>
       <c r="Q151" s="3" t="n"/>
       <c r="R151" s="3" t="n"/>
@@ -11795,10 +11843,10 @@
         <v>6</v>
       </c>
       <c r="V151" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W151" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -11812,7 +11860,7 @@
       </c>
       <c r="C152" s="3" t="inlineStr">
         <is>
-          <t>In progress</t>
+          <t>Completed Study (or withdrawn/LTF)</t>
         </is>
       </c>
       <c r="D152" s="3" t="n">
@@ -11915,7 +11963,11 @@
           <t>05-09-2023</t>
         </is>
       </c>
-      <c r="O153" s="3" t="n"/>
+      <c r="O153" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="P153" s="3" t="n"/>
       <c r="Q153" s="3" t="n"/>
       <c r="R153" s="3" t="n"/>
@@ -11925,10 +11977,10 @@
         <v>6</v>
       </c>
       <c r="V153" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W153" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -11980,8 +12032,16 @@
           <t>05-09-2023</t>
         </is>
       </c>
-      <c r="M154" s="3" t="n"/>
-      <c r="N154" s="3" t="n"/>
+      <c r="M154" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="N154" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="O154" s="3" t="n"/>
       <c r="P154" s="3" t="n"/>
       <c r="Q154" s="3" t="n"/>
@@ -11992,10 +12052,10 @@
         <v>4</v>
       </c>
       <c r="V154" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W154" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
@@ -12009,14 +12069,14 @@
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>In progress</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="D155" s="3" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E155" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F155" s="3" t="n">
         <v>0</v>
@@ -12025,11 +12085,11 @@
         <v>0</v>
       </c>
       <c r="H155" s="3" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I155" s="3" t="inlineStr">
         <is>
-          <t>not match</t>
+          <t>15-08-2023</t>
         </is>
       </c>
       <c r="J155" s="3" t="inlineStr">
@@ -12060,13 +12120,13 @@
       <c r="S155" s="3" t="n"/>
       <c r="T155" s="3" t="n"/>
       <c r="U155" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V155" s="3" t="n">
         <v>5</v>
       </c>
       <c r="W155" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -12080,14 +12140,14 @@
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t>In progress</t>
+          <t xml:space="preserve">Completed </t>
         </is>
       </c>
       <c r="D156" s="3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E156" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F156" s="3" t="n">
         <v>7</v>
@@ -12096,7 +12156,7 @@
         <v>0</v>
       </c>
       <c r="H156" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I156" s="3" t="inlineStr">
         <is>
@@ -12108,7 +12168,11 @@
           <t>24-08-2023</t>
         </is>
       </c>
-      <c r="K156" s="3" t="n"/>
+      <c r="K156" s="3" t="inlineStr">
+        <is>
+          <t>30-08-2023</t>
+        </is>
+      </c>
       <c r="L156" s="3" t="n"/>
       <c r="M156" s="3" t="n"/>
       <c r="N156" s="3" t="n"/>
@@ -12119,10 +12183,10 @@
       <c r="S156" s="3" t="n"/>
       <c r="T156" s="3" t="n"/>
       <c r="U156" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V156" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W156" s="3" t="n">
         <v>0</v>
@@ -12143,10 +12207,10 @@
         </is>
       </c>
       <c r="D157" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E157" s="3" t="n">
         <v>5</v>
-      </c>
-      <c r="E157" s="3" t="n">
-        <v>11</v>
       </c>
       <c r="F157" s="3" t="n">
         <v>5</v>
@@ -12155,7 +12219,7 @@
         <v>0</v>
       </c>
       <c r="H157" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I157" s="3" t="inlineStr">
         <is>
@@ -12163,7 +12227,11 @@
         </is>
       </c>
       <c r="J157" s="3" t="n"/>
-      <c r="K157" s="3" t="n"/>
+      <c r="K157" s="3" t="inlineStr">
+        <is>
+          <t>05-09-2023</t>
+        </is>
+      </c>
       <c r="L157" s="3" t="n"/>
       <c r="M157" s="3" t="n"/>
       <c r="N157" s="3" t="n"/>
@@ -12174,10 +12242,10 @@
       <c r="S157" s="3" t="n"/>
       <c r="T157" s="3" t="n"/>
       <c r="U157" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V157" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W157" s="3" t="n">
         <v>0</v>
@@ -12197,15 +12265,41 @@
           <t>In progress</t>
         </is>
       </c>
-      <c r="D158" s="3" t="n"/>
-      <c r="E158" s="3" t="n"/>
-      <c r="F158" s="3" t="n"/>
-      <c r="G158" s="3" t="n"/>
-      <c r="H158" s="3" t="n"/>
-      <c r="I158" s="3" t="n"/>
-      <c r="J158" s="3" t="n"/>
-      <c r="K158" s="3" t="n"/>
-      <c r="L158" s="3" t="n"/>
+      <c r="D158" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E158" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="I158" s="3" t="inlineStr">
+        <is>
+          <t>23-08-2023</t>
+        </is>
+      </c>
+      <c r="J158" s="3" t="inlineStr">
+        <is>
+          <t>28-08-2023</t>
+        </is>
+      </c>
+      <c r="K158" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="L158" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="M158" s="3" t="n"/>
       <c r="N158" s="3" t="n"/>
       <c r="O158" s="3" t="n"/>
@@ -12214,11 +12308,15 @@
       <c r="R158" s="3" t="n"/>
       <c r="S158" s="3" t="n"/>
       <c r="T158" s="3" t="n"/>
-      <c r="U158" s="3" t="n"/>
+      <c r="U158" s="3" t="n">
+        <v>2</v>
+      </c>
       <c r="V158" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W158" s="3" t="n"/>
+        <v>4</v>
+      </c>
+      <c r="W158" s="3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
@@ -12231,17 +12329,39 @@
       </c>
       <c r="C159" s="3" t="inlineStr">
         <is>
-          <t>In progress</t>
-        </is>
-      </c>
-      <c r="D159" s="3" t="n"/>
-      <c r="E159" s="3" t="n"/>
-      <c r="F159" s="3" t="n"/>
-      <c r="G159" s="3" t="n"/>
-      <c r="H159" s="3" t="n"/>
-      <c r="I159" s="3" t="n"/>
-      <c r="J159" s="3" t="n"/>
-      <c r="K159" s="3" t="n"/>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="D159" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E159" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F159" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="I159" s="3" t="inlineStr">
+        <is>
+          <t>23-08-2023</t>
+        </is>
+      </c>
+      <c r="J159" s="3" t="inlineStr">
+        <is>
+          <t>28-08-2023</t>
+        </is>
+      </c>
+      <c r="K159" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="L159" s="3" t="n"/>
       <c r="M159" s="3" t="n"/>
       <c r="N159" s="3" t="n"/>
@@ -12251,11 +12371,15 @@
       <c r="R159" s="3" t="n"/>
       <c r="S159" s="3" t="n"/>
       <c r="T159" s="3" t="n"/>
-      <c r="U159" s="3" t="n"/>
+      <c r="U159" s="3" t="n">
+        <v>2</v>
+      </c>
       <c r="V159" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W159" s="3" t="n"/>
+        <v>3</v>
+      </c>
+      <c r="W159" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="inlineStr">
@@ -12268,7 +12392,7 @@
       </c>
       <c r="C160" s="3" t="inlineStr">
         <is>
-          <t>In progress</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="D160" s="3" t="n">
@@ -12355,8 +12479,16 @@
         </is>
       </c>
       <c r="J161" s="3" t="n"/>
-      <c r="K161" s="3" t="n"/>
-      <c r="L161" s="3" t="n"/>
+      <c r="K161" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="L161" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="M161" s="3" t="n"/>
       <c r="N161" s="3" t="n"/>
       <c r="O161" s="3" t="n"/>
@@ -12369,10 +12501,10 @@
         <v>1</v>
       </c>
       <c r="V161" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W161" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -12409,8 +12541,16 @@
           <t>05-09-2023</t>
         </is>
       </c>
-      <c r="J162" s="3" t="n"/>
-      <c r="K162" s="3" t="n"/>
+      <c r="J162" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
+      <c r="K162" s="3" t="inlineStr">
+        <is>
+          <t>not match</t>
+        </is>
+      </c>
       <c r="L162" s="3" t="n"/>
       <c r="M162" s="3" t="n"/>
       <c r="N162" s="3" t="n"/>
@@ -12424,10 +12564,10 @@
         <v>1</v>
       </c>
       <c r="V162" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W162" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
@@ -14401,10 +14541,10 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>218</v>
+        <v>308</v>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
@@ -14419,10 +14559,10 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>363</v>
+        <v>533</v>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
@@ -14491,10 +14631,10 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>1289</v>
+        <v>1549</v>
       </c>
       <c r="D8" s="3" t="n"/>
     </row>
@@ -14509,7 +14649,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W69"/>
+  <dimension ref="A1:W76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15661,7 +15801,7 @@
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
@@ -15669,7 +15809,7 @@
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E18" s="3" t="n">
         <v>4</v>
@@ -15681,7 +15821,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
@@ -15725,32 +15865,32 @@
       </c>
       <c r="Q18" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>11-08-2023</t>
         </is>
       </c>
       <c r="R18" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>18-08-2023</t>
         </is>
       </c>
       <c r="S18" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>25-08-2023</t>
         </is>
       </c>
       <c r="T18" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>01-09-2023</t>
         </is>
       </c>
       <c r="U18" s="3" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="V18" s="3" t="n">
         <v>12</v>
       </c>
       <c r="W18" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -15760,7 +15900,7 @@
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
@@ -15768,7 +15908,7 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E19" s="3" t="n">
         <v>0</v>
@@ -15780,7 +15920,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
@@ -15814,34 +15954,34 @@
       </c>
       <c r="O19" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>11-08-2023</t>
         </is>
       </c>
       <c r="P19" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>18-08-2023</t>
         </is>
       </c>
       <c r="Q19" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>25-08-2023</t>
         </is>
       </c>
       <c r="R19" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>01-09-2023</t>
         </is>
       </c>
       <c r="S19" s="3" t="n"/>
       <c r="T19" s="3" t="n"/>
       <c r="U19" s="3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V19" s="3" t="n">
         <v>10</v>
       </c>
       <c r="W19" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -15906,7 +16046,7 @@
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
@@ -15914,7 +16054,7 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E21" s="3" t="n">
         <v>0</v>
@@ -15926,7 +16066,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
@@ -15940,22 +16080,22 @@
       </c>
       <c r="K21" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>11-08-2023</t>
         </is>
       </c>
       <c r="L21" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>22-08-2023</t>
         </is>
       </c>
       <c r="M21" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>05-09-2023</t>
         </is>
       </c>
       <c r="N21" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>12-09-2023</t>
         </is>
       </c>
       <c r="O21" s="3" t="n"/>
@@ -15965,13 +16105,13 @@
       <c r="S21" s="3" t="n"/>
       <c r="T21" s="3" t="n"/>
       <c r="U21" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V21" s="3" t="n">
         <v>6</v>
       </c>
       <c r="W21" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -15981,7 +16121,7 @@
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
@@ -15989,7 +16129,7 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E22" s="3" t="n">
         <v>0</v>
@@ -16001,7 +16141,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
@@ -16010,17 +16150,17 @@
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>18-08-2023</t>
         </is>
       </c>
       <c r="K22" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>25-08-2023</t>
         </is>
       </c>
       <c r="L22" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>01-09-2023</t>
         </is>
       </c>
       <c r="M22" s="3" t="n"/>
@@ -16032,122 +16172,86 @@
       <c r="S22" s="3" t="n"/>
       <c r="T22" s="3" t="n"/>
       <c r="U22" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V22" s="3" t="n">
         <v>4</v>
       </c>
       <c r="W22" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>208-001</t>
+          <t>207-013</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>In progress</t>
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>29-08-2023</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
         <is>
-          <t>08-03-2023</t>
+          <t>05-09-2023</t>
         </is>
       </c>
       <c r="K23" s="3" t="inlineStr">
         <is>
-          <t>15-03-2023</t>
-        </is>
-      </c>
-      <c r="L23" s="3" t="inlineStr">
-        <is>
-          <t>22-03-2023</t>
-        </is>
-      </c>
-      <c r="M23" s="3" t="inlineStr">
-        <is>
-          <t>29-03-2023</t>
-        </is>
-      </c>
-      <c r="N23" s="3" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="O23" s="3" t="inlineStr">
-        <is>
-          <t>19-04-2023</t>
-        </is>
-      </c>
-      <c r="P23" s="3" t="inlineStr">
-        <is>
-          <t>26-04-2023</t>
-        </is>
-      </c>
-      <c r="Q23" s="3" t="inlineStr">
-        <is>
-          <t>10-05-2023</t>
-        </is>
-      </c>
-      <c r="R23" s="3" t="inlineStr">
-        <is>
-          <t>24-05-2023</t>
-        </is>
-      </c>
-      <c r="S23" s="3" t="inlineStr">
-        <is>
-          <t>14-06-2023</t>
-        </is>
-      </c>
-      <c r="T23" s="3" t="inlineStr">
-        <is>
-          <t>21-06-2023</t>
-        </is>
-      </c>
+          <t>12-09-2023</t>
+        </is>
+      </c>
+      <c r="L23" s="3" t="n"/>
+      <c r="M23" s="3" t="n"/>
+      <c r="N23" s="3" t="n"/>
+      <c r="O23" s="3" t="n"/>
+      <c r="P23" s="3" t="n"/>
+      <c r="Q23" s="3" t="n"/>
+      <c r="R23" s="3" t="n"/>
+      <c r="S23" s="3" t="n"/>
+      <c r="T23" s="3" t="n"/>
       <c r="U23" s="3" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="V23" s="3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="W23" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>208-002</t>
+          <t>208-001</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
@@ -16158,7 +16262,7 @@
         <v>44</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" s="3" t="n">
         <v>44</v>
@@ -16181,52 +16285,52 @@
       </c>
       <c r="K24" s="3" t="inlineStr">
         <is>
-          <t>20-03-2023</t>
+          <t>15-03-2023</t>
         </is>
       </c>
       <c r="L24" s="3" t="inlineStr">
         <is>
-          <t>27-03-2023</t>
+          <t>22-03-2023</t>
         </is>
       </c>
       <c r="M24" s="3" t="inlineStr">
         <is>
-          <t>03-04-2023</t>
+          <t>29-03-2023</t>
         </is>
       </c>
       <c r="N24" s="3" t="inlineStr">
         <is>
-          <t>10-04-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="O24" s="3" t="inlineStr">
         <is>
-          <t>17-04-2023</t>
+          <t>19-04-2023</t>
         </is>
       </c>
       <c r="P24" s="3" t="inlineStr">
         <is>
-          <t>24-04-2023</t>
+          <t>26-04-2023</t>
         </is>
       </c>
       <c r="Q24" s="3" t="inlineStr">
         <is>
-          <t>01-05-2023</t>
+          <t>10-05-2023</t>
         </is>
       </c>
       <c r="R24" s="3" t="inlineStr">
         <is>
-          <t>10-05-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="S24" s="3" t="inlineStr">
         <is>
-          <t>17-05-2023</t>
+          <t>14-06-2023</t>
         </is>
       </c>
       <c r="T24" s="3" t="inlineStr">
         <is>
-          <t>24-05-2023</t>
+          <t>21-06-2023</t>
         </is>
       </c>
       <c r="U24" s="3" t="n">
@@ -16242,11 +16346,11 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>208-003</t>
+          <t>208-002</t>
         </is>
       </c>
       <c r="B25" s="3" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
@@ -16254,13 +16358,13 @@
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="G25" s="3" t="n">
         <v>0</v>
@@ -16270,42 +16374,82 @@
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>26-04-2023</t>
+          <t>not_match</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
         <is>
-          <t>15-05-2023</t>
-        </is>
-      </c>
-      <c r="K25" s="3" t="n"/>
-      <c r="L25" s="3" t="n"/>
-      <c r="M25" s="3" t="n"/>
-      <c r="N25" s="3" t="n"/>
-      <c r="O25" s="3" t="n"/>
-      <c r="P25" s="3" t="n"/>
-      <c r="Q25" s="3" t="n"/>
-      <c r="R25" s="3" t="n"/>
-      <c r="S25" s="3" t="n"/>
-      <c r="T25" s="3" t="n"/>
+          <t>08-03-2023</t>
+        </is>
+      </c>
+      <c r="K25" s="3" t="inlineStr">
+        <is>
+          <t>20-03-2023</t>
+        </is>
+      </c>
+      <c r="L25" s="3" t="inlineStr">
+        <is>
+          <t>27-03-2023</t>
+        </is>
+      </c>
+      <c r="M25" s="3" t="inlineStr">
+        <is>
+          <t>03-04-2023</t>
+        </is>
+      </c>
+      <c r="N25" s="3" t="inlineStr">
+        <is>
+          <t>10-04-2023</t>
+        </is>
+      </c>
+      <c r="O25" s="3" t="inlineStr">
+        <is>
+          <t>17-04-2023</t>
+        </is>
+      </c>
+      <c r="P25" s="3" t="inlineStr">
+        <is>
+          <t>24-04-2023</t>
+        </is>
+      </c>
+      <c r="Q25" s="3" t="inlineStr">
+        <is>
+          <t>01-05-2023</t>
+        </is>
+      </c>
+      <c r="R25" s="3" t="inlineStr">
+        <is>
+          <t>10-05-2023</t>
+        </is>
+      </c>
+      <c r="S25" s="3" t="inlineStr">
+        <is>
+          <t>17-05-2023</t>
+        </is>
+      </c>
+      <c r="T25" s="3" t="inlineStr">
+        <is>
+          <t>24-05-2023</t>
+        </is>
+      </c>
       <c r="U25" s="3" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="V25" s="3" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="W25" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>208-004</t>
+          <t>208-003</t>
         </is>
       </c>
       <c r="B26" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
@@ -16313,13 +16457,13 @@
         </is>
       </c>
       <c r="D26" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E26" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G26" s="3" t="n">
         <v>0</v>
@@ -16332,7 +16476,11 @@
           <t>26-04-2023</t>
         </is>
       </c>
-      <c r="J26" s="3" t="n"/>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>15-05-2023</t>
+        </is>
+      </c>
       <c r="K26" s="3" t="n"/>
       <c r="L26" s="3" t="n"/>
       <c r="M26" s="3" t="n"/>
@@ -16344,10 +16492,10 @@
       <c r="S26" s="3" t="n"/>
       <c r="T26" s="3" t="n"/>
       <c r="U26" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V26" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W26" s="3" t="n">
         <v>0</v>
@@ -16356,11 +16504,11 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>208-005</t>
+          <t>208-004</t>
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
@@ -16368,13 +16516,13 @@
         </is>
       </c>
       <c r="D27" s="3" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E27" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G27" s="3" t="n">
         <v>0</v>
@@ -16384,49 +16532,25 @@
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>10-05-2023</t>
-        </is>
-      </c>
-      <c r="J27" s="3" t="inlineStr">
-        <is>
-          <t>17-05-2023</t>
-        </is>
-      </c>
-      <c r="K27" s="3" t="inlineStr">
-        <is>
-          <t>24-05-2023</t>
-        </is>
-      </c>
-      <c r="L27" s="3" t="inlineStr">
-        <is>
-          <t>31-05-2023</t>
-        </is>
-      </c>
-      <c r="M27" s="3" t="inlineStr">
-        <is>
-          <t>09-06-2023</t>
-        </is>
-      </c>
-      <c r="N27" s="3" t="inlineStr">
-        <is>
-          <t>16-06-2023</t>
-        </is>
-      </c>
-      <c r="O27" s="3" t="inlineStr">
-        <is>
-          <t>23-06-2023</t>
-        </is>
-      </c>
+          <t>26-04-2023</t>
+        </is>
+      </c>
+      <c r="J27" s="3" t="n"/>
+      <c r="K27" s="3" t="n"/>
+      <c r="L27" s="3" t="n"/>
+      <c r="M27" s="3" t="n"/>
+      <c r="N27" s="3" t="n"/>
+      <c r="O27" s="3" t="n"/>
       <c r="P27" s="3" t="n"/>
       <c r="Q27" s="3" t="n"/>
       <c r="R27" s="3" t="n"/>
       <c r="S27" s="3" t="n"/>
       <c r="T27" s="3" t="n"/>
       <c r="U27" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V27" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="W27" s="3" t="n">
         <v>0</v>
@@ -16435,11 +16559,11 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>208-006</t>
+          <t>208-005</t>
         </is>
       </c>
       <c r="B28" s="3" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
@@ -16447,57 +16571,65 @@
         </is>
       </c>
       <c r="D28" s="3" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E28" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G28" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>12-05-2023</t>
+          <t>10-05-2023</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
-          <t>26-05-2023</t>
+          <t>17-05-2023</t>
         </is>
       </c>
       <c r="K28" s="3" t="inlineStr">
         <is>
+          <t>24-05-2023</t>
+        </is>
+      </c>
+      <c r="L28" s="3" t="inlineStr">
+        <is>
+          <t>31-05-2023</t>
+        </is>
+      </c>
+      <c r="M28" s="3" t="inlineStr">
+        <is>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N28" s="3" t="inlineStr">
+        <is>
           <t>16-06-2023</t>
         </is>
       </c>
-      <c r="L28" s="3" t="inlineStr">
+      <c r="O28" s="3" t="inlineStr">
         <is>
           <t>23-06-2023</t>
         </is>
       </c>
-      <c r="M28" s="3" t="inlineStr">
-        <is>
-          <t>30-06-2023</t>
-        </is>
-      </c>
-      <c r="N28" s="3" t="n"/>
-      <c r="O28" s="3" t="n"/>
       <c r="P28" s="3" t="n"/>
       <c r="Q28" s="3" t="n"/>
       <c r="R28" s="3" t="n"/>
       <c r="S28" s="3" t="n"/>
       <c r="T28" s="3" t="n"/>
       <c r="U28" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V28" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W28" s="3" t="n">
         <v>0</v>
@@ -16506,11 +16638,11 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>208-007</t>
+          <t>208-006</t>
         </is>
       </c>
       <c r="B29" s="3" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
@@ -16518,98 +16650,70 @@
         </is>
       </c>
       <c r="D29" s="3" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G29" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
         <is>
-          <t>22-05-2023</t>
+          <t>26-05-2023</t>
         </is>
       </c>
       <c r="K29" s="3" t="inlineStr">
         <is>
-          <t>31-05-2023</t>
+          <t>16-06-2023</t>
         </is>
       </c>
       <c r="L29" s="3" t="inlineStr">
         <is>
-          <t>12-06-2023</t>
+          <t>23-06-2023</t>
         </is>
       </c>
       <c r="M29" s="3" t="inlineStr">
         <is>
-          <t>19-06-2023</t>
-        </is>
-      </c>
-      <c r="N29" s="3" t="inlineStr">
-        <is>
-          <t>26-06-2023</t>
-        </is>
-      </c>
-      <c r="O29" s="3" t="inlineStr">
-        <is>
-          <t>05-07-2023</t>
-        </is>
-      </c>
-      <c r="P29" s="3" t="inlineStr">
-        <is>
-          <t>15-07-2023</t>
-        </is>
-      </c>
-      <c r="Q29" s="3" t="inlineStr">
-        <is>
-          <t>not_match</t>
-        </is>
-      </c>
-      <c r="R29" s="3" t="inlineStr">
-        <is>
-          <t>not_match</t>
-        </is>
-      </c>
-      <c r="S29" s="3" t="inlineStr">
-        <is>
-          <t>not_match</t>
-        </is>
-      </c>
-      <c r="T29" s="3" t="inlineStr">
-        <is>
-          <t>not_match</t>
-        </is>
-      </c>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="N29" s="3" t="n"/>
+      <c r="O29" s="3" t="n"/>
+      <c r="P29" s="3" t="n"/>
+      <c r="Q29" s="3" t="n"/>
+      <c r="R29" s="3" t="n"/>
+      <c r="S29" s="3" t="n"/>
+      <c r="T29" s="3" t="n"/>
       <c r="U29" s="3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V29" s="3" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="W29" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>208-008</t>
+          <t>208-007</t>
         </is>
       </c>
       <c r="B30" s="3" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
@@ -16617,66 +16721,98 @@
         </is>
       </c>
       <c r="D30" s="3" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F30" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t>not_match</t>
+        </is>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>22-05-2023</t>
+        </is>
+      </c>
+      <c r="K30" s="3" t="inlineStr">
+        <is>
+          <t>31-05-2023</t>
+        </is>
+      </c>
+      <c r="L30" s="3" t="inlineStr">
+        <is>
+          <t>12-06-2023</t>
+        </is>
+      </c>
+      <c r="M30" s="3" t="inlineStr">
+        <is>
+          <t>19-06-2023</t>
+        </is>
+      </c>
+      <c r="N30" s="3" t="inlineStr">
+        <is>
+          <t>26-06-2023</t>
+        </is>
+      </c>
+      <c r="O30" s="3" t="inlineStr">
+        <is>
+          <t>05-07-2023</t>
+        </is>
+      </c>
+      <c r="P30" s="3" t="inlineStr">
+        <is>
+          <t>15-07-2023</t>
+        </is>
+      </c>
+      <c r="Q30" s="3" t="inlineStr">
+        <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="R30" s="3" t="inlineStr">
+        <is>
+          <t>31-07-2023</t>
+        </is>
+      </c>
+      <c r="S30" s="3" t="inlineStr">
+        <is>
+          <t>07-08-2023</t>
+        </is>
+      </c>
+      <c r="T30" s="3" t="inlineStr">
+        <is>
+          <t>14-08-2023</t>
+        </is>
+      </c>
+      <c r="U30" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="V30" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="G30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I30" s="3" t="inlineStr">
-        <is>
-          <t>17-05-2023</t>
-        </is>
-      </c>
-      <c r="J30" s="3" t="inlineStr">
-        <is>
-          <t>24-05-2023</t>
-        </is>
-      </c>
-      <c r="K30" s="3" t="inlineStr">
-        <is>
-          <t>14-06-2023</t>
-        </is>
-      </c>
-      <c r="L30" s="3" t="inlineStr">
-        <is>
-          <t>30-06-2023</t>
-        </is>
-      </c>
-      <c r="M30" s="3" t="n"/>
-      <c r="N30" s="3" t="n"/>
-      <c r="O30" s="3" t="n"/>
-      <c r="P30" s="3" t="n"/>
-      <c r="Q30" s="3" t="n"/>
-      <c r="R30" s="3" t="n"/>
-      <c r="S30" s="3" t="n"/>
-      <c r="T30" s="3" t="n"/>
-      <c r="U30" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="V30" s="3" t="n">
-        <v>4</v>
-      </c>
       <c r="W30" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>208-009</t>
+          <t>208-008</t>
         </is>
       </c>
       <c r="B31" s="3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
@@ -16684,19 +16820,19 @@
         </is>
       </c>
       <c r="D31" s="3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E31" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G31" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
@@ -16705,24 +16841,20 @@
       </c>
       <c r="J31" s="3" t="inlineStr">
         <is>
-          <t>31-05-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="K31" s="3" t="inlineStr">
         <is>
-          <t>16-06-2023</t>
+          <t>14-06-2023</t>
         </is>
       </c>
       <c r="L31" s="3" t="inlineStr">
         <is>
-          <t>23-06-2023</t>
-        </is>
-      </c>
-      <c r="M31" s="3" t="inlineStr">
-        <is>
           <t>30-06-2023</t>
         </is>
       </c>
+      <c r="M31" s="3" t="n"/>
       <c r="N31" s="3" t="n"/>
       <c r="O31" s="3" t="n"/>
       <c r="P31" s="3" t="n"/>
@@ -16731,10 +16863,10 @@
       <c r="S31" s="3" t="n"/>
       <c r="T31" s="3" t="n"/>
       <c r="U31" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V31" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W31" s="3" t="n">
         <v>0</v>
@@ -16743,11 +16875,11 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>208-010</t>
+          <t>208-009</t>
         </is>
       </c>
       <c r="B32" s="3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
@@ -16755,19 +16887,19 @@
         </is>
       </c>
       <c r="D32" s="3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E32" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G32" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
@@ -16776,29 +16908,25 @@
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
-          <t>24-05-2023</t>
+          <t>31-05-2023</t>
         </is>
       </c>
       <c r="K32" s="3" t="inlineStr">
         <is>
-          <t>21-06-2023</t>
+          <t>16-06-2023</t>
         </is>
       </c>
       <c r="L32" s="3" t="inlineStr">
         <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="M32" s="3" t="inlineStr">
+        <is>
           <t>30-06-2023</t>
         </is>
       </c>
-      <c r="M32" s="3" t="inlineStr">
-        <is>
-          <t>14-07-2023</t>
-        </is>
-      </c>
-      <c r="N32" s="3" t="inlineStr">
-        <is>
-          <t>not_match</t>
-        </is>
-      </c>
+      <c r="N32" s="3" t="n"/>
       <c r="O32" s="3" t="n"/>
       <c r="P32" s="3" t="n"/>
       <c r="Q32" s="3" t="n"/>
@@ -16809,67 +16937,71 @@
         <v>5</v>
       </c>
       <c r="V32" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W32" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>208-011</t>
+          <t>208-010</t>
         </is>
       </c>
       <c r="B33" s="3" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>Lost to follow up</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="D33" s="3" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E33" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G33" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
+          <t>17-05-2023</t>
+        </is>
+      </c>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
           <t>24-05-2023</t>
         </is>
       </c>
-      <c r="J33" s="3" t="inlineStr">
-        <is>
-          <t>31-05-2023</t>
-        </is>
-      </c>
       <c r="K33" s="3" t="inlineStr">
         <is>
-          <t>09-06-2023</t>
+          <t>21-06-2023</t>
         </is>
       </c>
       <c r="L33" s="3" t="inlineStr">
         <is>
-          <t>16-06-2023</t>
+          <t>30-06-2023</t>
         </is>
       </c>
       <c r="M33" s="3" t="inlineStr">
         <is>
-          <t>23-06-2023</t>
-        </is>
-      </c>
-      <c r="N33" s="3" t="n"/>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="N33" s="3" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
       <c r="O33" s="3" t="n"/>
       <c r="P33" s="3" t="n"/>
       <c r="Q33" s="3" t="n"/>
@@ -16877,10 +17009,10 @@
       <c r="S33" s="3" t="n"/>
       <c r="T33" s="3" t="n"/>
       <c r="U33" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V33" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W33" s="3" t="n">
         <v>0</v>
@@ -16889,25 +17021,25 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>208-012</t>
+          <t>208-011</t>
         </is>
       </c>
       <c r="B34" s="3" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>Completed Study</t>
+          <t>Lost to follow up</t>
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E34" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G34" s="3" t="n">
         <v>0</v>
@@ -16917,21 +17049,29 @@
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
+          <t>24-05-2023</t>
+        </is>
+      </c>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
           <t>31-05-2023</t>
         </is>
       </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>14-06-2023</t>
-        </is>
-      </c>
       <c r="K34" s="3" t="inlineStr">
         <is>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="L34" s="3" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="M34" s="3" t="inlineStr">
+        <is>
           <t>23-06-2023</t>
         </is>
       </c>
-      <c r="L34" s="3" t="n"/>
-      <c r="M34" s="3" t="n"/>
       <c r="N34" s="3" t="n"/>
       <c r="O34" s="3" t="n"/>
       <c r="P34" s="3" t="n"/>
@@ -16940,10 +17080,10 @@
       <c r="S34" s="3" t="n"/>
       <c r="T34" s="3" t="n"/>
       <c r="U34" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V34" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W34" s="3" t="n">
         <v>0</v>
@@ -16952,31 +17092,31 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>208-013</t>
+          <t>208-012</t>
         </is>
       </c>
       <c r="B35" s="3" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>In progress</t>
+          <t>Completed Study</t>
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E35" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G35" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
@@ -16985,65 +17125,41 @@
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>07-06-2023</t>
+          <t>14-06-2023</t>
         </is>
       </c>
       <c r="K35" s="3" t="inlineStr">
         <is>
-          <t>14-06-2023</t>
-        </is>
-      </c>
-      <c r="L35" s="3" t="inlineStr">
-        <is>
-          <t>21-06-2023</t>
-        </is>
-      </c>
-      <c r="M35" s="3" t="inlineStr">
-        <is>
-          <t>28-06-2023</t>
-        </is>
-      </c>
-      <c r="N35" s="3" t="inlineStr">
-        <is>
-          <t>05-07-2023</t>
-        </is>
-      </c>
-      <c r="O35" s="3" t="inlineStr">
-        <is>
-          <t>12-07-2023</t>
-        </is>
-      </c>
-      <c r="P35" s="3" t="inlineStr">
-        <is>
-          <t>not_match</t>
-        </is>
-      </c>
-      <c r="Q35" s="3" t="inlineStr">
-        <is>
-          <t>not_match</t>
-        </is>
-      </c>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="L35" s="3" t="n"/>
+      <c r="M35" s="3" t="n"/>
+      <c r="N35" s="3" t="n"/>
+      <c r="O35" s="3" t="n"/>
+      <c r="P35" s="3" t="n"/>
+      <c r="Q35" s="3" t="n"/>
       <c r="R35" s="3" t="n"/>
       <c r="S35" s="3" t="n"/>
       <c r="T35" s="3" t="n"/>
       <c r="U35" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V35" s="3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="W35" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>208-014</t>
+          <t>208-013</t>
         </is>
       </c>
       <c r="B36" s="3" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
@@ -17051,136 +17167,164 @@
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E36" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F36" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="G36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3" t="n">
-        <v>8</v>
-      </c>
       <c r="I36" s="3" t="inlineStr">
         <is>
+          <t>31-05-2023</t>
+        </is>
+      </c>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
           <t>07-06-2023</t>
         </is>
       </c>
-      <c r="J36" s="3" t="inlineStr">
+      <c r="K36" s="3" t="inlineStr">
         <is>
           <t>14-06-2023</t>
         </is>
       </c>
-      <c r="K36" s="3" t="inlineStr">
+      <c r="L36" s="3" t="inlineStr">
         <is>
           <t>21-06-2023</t>
         </is>
       </c>
-      <c r="L36" s="3" t="inlineStr">
+      <c r="M36" s="3" t="inlineStr">
         <is>
           <t>28-06-2023</t>
         </is>
       </c>
-      <c r="M36" s="3" t="inlineStr">
+      <c r="N36" s="3" t="inlineStr">
         <is>
           <t>05-07-2023</t>
         </is>
       </c>
-      <c r="N36" s="3" t="inlineStr">
+      <c r="O36" s="3" t="inlineStr">
         <is>
           <t>12-07-2023</t>
         </is>
       </c>
-      <c r="O36" s="3" t="inlineStr">
-        <is>
-          <t>not_match</t>
-        </is>
-      </c>
       <c r="P36" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>24-07-2023</t>
         </is>
       </c>
       <c r="Q36" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
-        </is>
-      </c>
-      <c r="R36" s="3" t="inlineStr">
-        <is>
-          <t>not_match</t>
-        </is>
-      </c>
+          <t>09-08-2023</t>
+        </is>
+      </c>
+      <c r="R36" s="3" t="n"/>
       <c r="S36" s="3" t="n"/>
       <c r="T36" s="3" t="n"/>
       <c r="U36" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V36" s="3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W36" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>208-015</t>
+          <t>208-014</t>
         </is>
       </c>
       <c r="B37" s="3" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>In progress</t>
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E37" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G37" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I37" s="3" t="inlineStr">
         <is>
-          <t>16-06-2023</t>
+          <t>07-06-2023</t>
         </is>
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>23-06-2023</t>
-        </is>
-      </c>
-      <c r="K37" s="3" t="n"/>
-      <c r="L37" s="3" t="n"/>
-      <c r="M37" s="3" t="n"/>
-      <c r="N37" s="3" t="n"/>
-      <c r="O37" s="3" t="n"/>
-      <c r="P37" s="3" t="n"/>
-      <c r="Q37" s="3" t="n"/>
-      <c r="R37" s="3" t="n"/>
+          <t>14-06-2023</t>
+        </is>
+      </c>
+      <c r="K37" s="3" t="inlineStr">
+        <is>
+          <t>21-06-2023</t>
+        </is>
+      </c>
+      <c r="L37" s="3" t="inlineStr">
+        <is>
+          <t>28-06-2023</t>
+        </is>
+      </c>
+      <c r="M37" s="3" t="inlineStr">
+        <is>
+          <t>05-07-2023</t>
+        </is>
+      </c>
+      <c r="N37" s="3" t="inlineStr">
+        <is>
+          <t>12-07-2023</t>
+        </is>
+      </c>
+      <c r="O37" s="3" t="inlineStr">
+        <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="P37" s="3" t="inlineStr">
+        <is>
+          <t>02-08-2023</t>
+        </is>
+      </c>
+      <c r="Q37" s="3" t="inlineStr">
+        <is>
+          <t>09-08-2023</t>
+        </is>
+      </c>
+      <c r="R37" s="3" t="inlineStr">
+        <is>
+          <t>23-08-2023</t>
+        </is>
+      </c>
       <c r="S37" s="3" t="n"/>
       <c r="T37" s="3" t="n"/>
       <c r="U37" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V37" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="W37" s="3" t="n">
         <v>0</v>
@@ -17189,113 +17333,81 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>208-016</t>
+          <t>208-015</t>
         </is>
       </c>
       <c r="B38" s="3" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>In progress</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F38" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G38" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I38" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>16-06-2023</t>
         </is>
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>28-06-2023</t>
-        </is>
-      </c>
-      <c r="K38" s="3" t="inlineStr">
-        <is>
-          <t>10-07-2023</t>
-        </is>
-      </c>
-      <c r="L38" s="3" t="inlineStr">
-        <is>
-          <t>17-07-2023</t>
-        </is>
-      </c>
-      <c r="M38" s="3" t="inlineStr">
-        <is>
-          <t>not_match</t>
-        </is>
-      </c>
-      <c r="N38" s="3" t="inlineStr">
-        <is>
-          <t>not_match</t>
-        </is>
-      </c>
-      <c r="O38" s="3" t="inlineStr">
-        <is>
-          <t>not_match</t>
-        </is>
-      </c>
-      <c r="P38" s="3" t="inlineStr">
-        <is>
-          <t>not_match</t>
-        </is>
-      </c>
-      <c r="Q38" s="3" t="inlineStr">
-        <is>
-          <t>not_match</t>
-        </is>
-      </c>
-      <c r="R38" s="3" t="inlineStr">
-        <is>
-          <t>not_match</t>
-        </is>
-      </c>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="K38" s="3" t="n"/>
+      <c r="L38" s="3" t="n"/>
+      <c r="M38" s="3" t="n"/>
+      <c r="N38" s="3" t="n"/>
+      <c r="O38" s="3" t="n"/>
+      <c r="P38" s="3" t="n"/>
+      <c r="Q38" s="3" t="n"/>
+      <c r="R38" s="3" t="n"/>
       <c r="S38" s="3" t="n"/>
       <c r="T38" s="3" t="n"/>
       <c r="U38" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V38" s="3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="W38" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>208-017</t>
+          <t>208-016</t>
         </is>
       </c>
       <c r="B39" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>In progress</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="E39" s="3" t="n">
         <v>4</v>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>Lost to follow up</t>
-        </is>
-      </c>
-      <c r="D39" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E39" s="3" t="n">
-        <v>0</v>
       </c>
       <c r="F39" s="3" t="n">
         <v>4</v>
@@ -17304,33 +17416,65 @@
         <v>0</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I39" s="3" t="inlineStr">
         <is>
-          <t>21-06-2023</t>
+          <t>not_match</t>
         </is>
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
-        </is>
-      </c>
-      <c r="K39" s="3" t="n"/>
-      <c r="L39" s="3" t="n"/>
-      <c r="M39" s="3" t="n"/>
-      <c r="N39" s="3" t="n"/>
-      <c r="O39" s="3" t="n"/>
-      <c r="P39" s="3" t="n"/>
-      <c r="Q39" s="3" t="n"/>
-      <c r="R39" s="3" t="n"/>
+          <t>28-06-2023</t>
+        </is>
+      </c>
+      <c r="K39" s="3" t="inlineStr">
+        <is>
+          <t>10-07-2023</t>
+        </is>
+      </c>
+      <c r="L39" s="3" t="inlineStr">
+        <is>
+          <t>17-07-2023</t>
+        </is>
+      </c>
+      <c r="M39" s="3" t="inlineStr">
+        <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="N39" s="3" t="inlineStr">
+        <is>
+          <t>31-07-2023</t>
+        </is>
+      </c>
+      <c r="O39" s="3" t="inlineStr">
+        <is>
+          <t>07-08-2023</t>
+        </is>
+      </c>
+      <c r="P39" s="3" t="inlineStr">
+        <is>
+          <t>21-08-2023</t>
+        </is>
+      </c>
+      <c r="Q39" s="3" t="inlineStr">
+        <is>
+          <t>28-08-2023</t>
+        </is>
+      </c>
+      <c r="R39" s="3" t="inlineStr">
+        <is>
+          <t>06-09-2023</t>
+        </is>
+      </c>
       <c r="S39" s="3" t="n"/>
       <c r="T39" s="3" t="n"/>
       <c r="U39" s="3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="V39" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="W39" s="3" t="n">
         <v>1</v>
@@ -17339,140 +17483,140 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>208-018</t>
+          <t>208-017</t>
         </is>
       </c>
       <c r="B40" s="3" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>In progress</t>
+          <t>Lost to follow up</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E40" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G40" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I40" s="3" t="inlineStr">
         <is>
-          <t>05-07-2023</t>
+          <t>21-06-2023</t>
         </is>
       </c>
       <c r="J40" s="3" t="inlineStr">
         <is>
-          <t>12-07-2023</t>
-        </is>
-      </c>
-      <c r="K40" s="3" t="inlineStr">
-        <is>
-          <t>19-07-2023</t>
-        </is>
-      </c>
-      <c r="L40" s="3" t="inlineStr">
-        <is>
           <t>not_match</t>
         </is>
       </c>
-      <c r="M40" s="3" t="inlineStr">
-        <is>
-          <t>not_match</t>
-        </is>
-      </c>
-      <c r="N40" s="3" t="inlineStr">
-        <is>
-          <t>not_match</t>
-        </is>
-      </c>
-      <c r="O40" s="3" t="inlineStr">
-        <is>
-          <t>not_match</t>
-        </is>
-      </c>
-      <c r="P40" s="3" t="inlineStr">
-        <is>
-          <t>not_match</t>
-        </is>
-      </c>
+      <c r="K40" s="3" t="n"/>
+      <c r="L40" s="3" t="n"/>
+      <c r="M40" s="3" t="n"/>
+      <c r="N40" s="3" t="n"/>
+      <c r="O40" s="3" t="n"/>
+      <c r="P40" s="3" t="n"/>
       <c r="Q40" s="3" t="n"/>
       <c r="R40" s="3" t="n"/>
       <c r="S40" s="3" t="n"/>
       <c r="T40" s="3" t="n"/>
       <c r="U40" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V40" s="3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="W40" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>209-001</t>
+          <t>208-018</t>
         </is>
       </c>
       <c r="B41" s="3" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>In progress</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E41" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F41" s="3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I41" s="3" t="inlineStr">
         <is>
-          <t>16-02-2023</t>
+          <t>05-07-2023</t>
         </is>
       </c>
       <c r="J41" s="3" t="inlineStr">
         <is>
-          <t>23-02-2023</t>
-        </is>
-      </c>
-      <c r="K41" s="3" t="n"/>
-      <c r="L41" s="3" t="n"/>
-      <c r="M41" s="3" t="n"/>
-      <c r="N41" s="3" t="n"/>
-      <c r="O41" s="3" t="n"/>
-      <c r="P41" s="3" t="n"/>
+          <t>12-07-2023</t>
+        </is>
+      </c>
+      <c r="K41" s="3" t="inlineStr">
+        <is>
+          <t>19-07-2023</t>
+        </is>
+      </c>
+      <c r="L41" s="3" t="inlineStr">
+        <is>
+          <t>02-08-2023</t>
+        </is>
+      </c>
+      <c r="M41" s="3" t="inlineStr">
+        <is>
+          <t>09-08-2023</t>
+        </is>
+      </c>
+      <c r="N41" s="3" t="inlineStr">
+        <is>
+          <t>23-08-2023</t>
+        </is>
+      </c>
+      <c r="O41" s="3" t="inlineStr">
+        <is>
+          <t>30-08-2023</t>
+        </is>
+      </c>
+      <c r="P41" s="3" t="inlineStr">
+        <is>
+          <t>06-09-2023</t>
+        </is>
+      </c>
       <c r="Q41" s="3" t="n"/>
       <c r="R41" s="3" t="n"/>
       <c r="S41" s="3" t="n"/>
       <c r="T41" s="3" t="n"/>
       <c r="U41" s="3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V41" s="3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="W41" s="3" t="n">
         <v>0</v>
@@ -17481,57 +17625,45 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>209-002</t>
+          <t>208-019</t>
         </is>
       </c>
       <c r="B42" s="3" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>Withdrawn (SAE)</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E42" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I42" s="3" t="inlineStr">
         <is>
-          <t>16-02-2023</t>
+          <t>31-07-2023</t>
         </is>
       </c>
       <c r="J42" s="3" t="inlineStr">
         <is>
-          <t>23-02-2023</t>
-        </is>
-      </c>
-      <c r="K42" s="3" t="inlineStr">
-        <is>
-          <t>02-03-2023</t>
-        </is>
-      </c>
-      <c r="L42" s="3" t="inlineStr">
-        <is>
-          <t>09-03-2023</t>
-        </is>
-      </c>
-      <c r="M42" s="3" t="inlineStr">
-        <is>
-          <t>21-03-2023</t>
-        </is>
-      </c>
+          <t>28-08-2023</t>
+        </is>
+      </c>
+      <c r="K42" s="3" t="n"/>
+      <c r="L42" s="3" t="n"/>
+      <c r="M42" s="3" t="n"/>
       <c r="N42" s="3" t="n"/>
       <c r="O42" s="3" t="n"/>
       <c r="P42" s="3" t="n"/>
@@ -17540,10 +17672,10 @@
       <c r="S42" s="3" t="n"/>
       <c r="T42" s="3" t="n"/>
       <c r="U42" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V42" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W42" s="3" t="n">
         <v>0</v>
@@ -17552,52 +17684,48 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>209-006</t>
+          <t>208-020</t>
         </is>
       </c>
       <c r="B43" s="3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>In progress</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F43" s="3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I43" s="3" t="inlineStr">
         <is>
-          <t>23-02-2023</t>
+          <t>07-08-2023</t>
         </is>
       </c>
       <c r="J43" s="3" t="inlineStr">
         <is>
-          <t>02-03-2023</t>
+          <t>21-08-2023</t>
         </is>
       </c>
       <c r="K43" s="3" t="inlineStr">
         <is>
-          <t>09-03-2023</t>
-        </is>
-      </c>
-      <c r="L43" s="3" t="inlineStr">
-        <is>
-          <t>16-03-2023</t>
-        </is>
-      </c>
+          <t>28-08-2023</t>
+        </is>
+      </c>
+      <c r="L43" s="3" t="n"/>
       <c r="M43" s="3" t="n"/>
       <c r="N43" s="3" t="n"/>
       <c r="O43" s="3" t="n"/>
@@ -17607,10 +17735,10 @@
       <c r="S43" s="3" t="n"/>
       <c r="T43" s="3" t="n"/>
       <c r="U43" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V43" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W43" s="3" t="n">
         <v>0</v>
@@ -17619,62 +17747,54 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>209-007</t>
+          <t>208-021</t>
         </is>
       </c>
       <c r="B44" s="3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>In progress</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E44" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F44" s="3" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I44" s="3" t="inlineStr">
         <is>
-          <t>23-02-2023</t>
+          <t>07-08-2023</t>
         </is>
       </c>
       <c r="J44" s="3" t="inlineStr">
         <is>
-          <t>02-03-2023</t>
+          <t>14-08-2023</t>
         </is>
       </c>
       <c r="K44" s="3" t="inlineStr">
         <is>
-          <t>09-03-2023</t>
+          <t>23-08-2023</t>
         </is>
       </c>
       <c r="L44" s="3" t="inlineStr">
         <is>
-          <t>16-03-2023</t>
-        </is>
-      </c>
-      <c r="M44" s="3" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="N44" s="3" t="inlineStr">
-        <is>
-          <t>30-03-2023</t>
-        </is>
-      </c>
+          <t>30-08-2023</t>
+        </is>
+      </c>
+      <c r="M44" s="3" t="n"/>
+      <c r="N44" s="3" t="n"/>
       <c r="O44" s="3" t="n"/>
       <c r="P44" s="3" t="n"/>
       <c r="Q44" s="3" t="n"/>
@@ -17682,10 +17802,10 @@
       <c r="S44" s="3" t="n"/>
       <c r="T44" s="3" t="n"/>
       <c r="U44" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V44" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W44" s="3" t="n">
         <v>0</v>
@@ -17694,97 +17814,61 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>209-005</t>
+          <t>208-022</t>
         </is>
       </c>
       <c r="B45" s="3" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>In progress</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E45" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F45" s="3" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I45" s="3" t="inlineStr">
         <is>
-          <t>28-02-2023</t>
+          <t>09-08-2023</t>
         </is>
       </c>
       <c r="J45" s="3" t="inlineStr">
         <is>
-          <t>07-03-2023</t>
+          <t>23-08-2023</t>
         </is>
       </c>
       <c r="K45" s="3" t="inlineStr">
         <is>
-          <t>14-03-2023</t>
-        </is>
-      </c>
-      <c r="L45" s="3" t="inlineStr">
-        <is>
-          <t>21-03-2023</t>
-        </is>
-      </c>
-      <c r="M45" s="3" t="inlineStr">
-        <is>
-          <t>30-03-2023</t>
-        </is>
-      </c>
-      <c r="N45" s="3" t="inlineStr">
-        <is>
-          <t>04-04-2023</t>
-        </is>
-      </c>
-      <c r="O45" s="3" t="inlineStr">
-        <is>
-          <t>11-04-2023</t>
-        </is>
-      </c>
-      <c r="P45" s="3" t="inlineStr">
-        <is>
-          <t>18-04-2023</t>
-        </is>
-      </c>
-      <c r="Q45" s="3" t="inlineStr">
-        <is>
-          <t>02-05-2023</t>
-        </is>
-      </c>
-      <c r="R45" s="3" t="inlineStr">
-        <is>
-          <t>09-05-2023</t>
-        </is>
-      </c>
-      <c r="S45" s="3" t="inlineStr">
-        <is>
-          <t>16-05-2023</t>
-        </is>
-      </c>
-      <c r="T45" s="3" t="inlineStr">
-        <is>
-          <t>23-05-2023</t>
-        </is>
-      </c>
+          <t>30-08-2023</t>
+        </is>
+      </c>
+      <c r="L45" s="3" t="n"/>
+      <c r="M45" s="3" t="n"/>
+      <c r="N45" s="3" t="n"/>
+      <c r="O45" s="3" t="n"/>
+      <c r="P45" s="3" t="n"/>
+      <c r="Q45" s="3" t="n"/>
+      <c r="R45" s="3" t="n"/>
+      <c r="S45" s="3" t="n"/>
+      <c r="T45" s="3" t="n"/>
       <c r="U45" s="3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="V45" s="3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="W45" s="3" t="n">
         <v>0</v>
@@ -17793,57 +17877,45 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>209-003</t>
+          <t>208-023</t>
         </is>
       </c>
       <c r="B46" s="3" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>Withdrawn (SAE)</t>
+          <t>In progress</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E46" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F46" s="3" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I46" s="3" t="inlineStr">
         <is>
-          <t>28-02-2023</t>
+          <t>25-08-2023</t>
         </is>
       </c>
       <c r="J46" s="3" t="inlineStr">
         <is>
-          <t>14-03-2023</t>
-        </is>
-      </c>
-      <c r="K46" s="3" t="inlineStr">
-        <is>
-          <t>30-03-2023</t>
-        </is>
-      </c>
-      <c r="L46" s="3" t="inlineStr">
-        <is>
-          <t>11-04-2023</t>
-        </is>
-      </c>
-      <c r="M46" s="3" t="inlineStr">
-        <is>
-          <t>25-04-2023</t>
-        </is>
-      </c>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="K46" s="3" t="n"/>
+      <c r="L46" s="3" t="n"/>
+      <c r="M46" s="3" t="n"/>
       <c r="N46" s="3" t="n"/>
       <c r="O46" s="3" t="n"/>
       <c r="P46" s="3" t="n"/>
@@ -17852,10 +17924,10 @@
       <c r="S46" s="3" t="n"/>
       <c r="T46" s="3" t="n"/>
       <c r="U46" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V46" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W46" s="3" t="n">
         <v>0</v>
@@ -17864,47 +17936,25 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>209-004</t>
+          <t>208-024</t>
         </is>
       </c>
       <c r="B47" s="3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>Withdrawn (SAE)</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="E47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="G47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3" t="inlineStr">
-        <is>
-          <t>02-03-2023</t>
-        </is>
-      </c>
-      <c r="J47" s="3" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="K47" s="3" t="inlineStr">
-        <is>
-          <t>20-04-2023</t>
-        </is>
-      </c>
+          <t>In progress</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="n"/>
+      <c r="E47" s="3" t="n"/>
+      <c r="F47" s="3" t="n"/>
+      <c r="G47" s="3" t="n"/>
+      <c r="H47" s="3" t="n"/>
+      <c r="I47" s="3" t="n"/>
+      <c r="J47" s="3" t="n"/>
+      <c r="K47" s="3" t="n"/>
       <c r="L47" s="3" t="n"/>
       <c r="M47" s="3" t="n"/>
       <c r="N47" s="3" t="n"/>
@@ -17914,24 +17964,20 @@
       <c r="R47" s="3" t="n"/>
       <c r="S47" s="3" t="n"/>
       <c r="T47" s="3" t="n"/>
-      <c r="U47" s="3" t="n">
-        <v>3</v>
-      </c>
+      <c r="U47" s="3" t="n"/>
       <c r="V47" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="W47" s="3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W47" s="3" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>209-008</t>
+          <t>209-001</t>
         </is>
       </c>
       <c r="B48" s="3" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
@@ -17939,73 +17985,45 @@
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E48" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F48" s="3" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="G48" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3" t="n">
         <v>0</v>
       </c>
       <c r="I48" s="3" t="inlineStr">
         <is>
-          <t>07-03-2023</t>
+          <t>16-02-2023</t>
         </is>
       </c>
       <c r="J48" s="3" t="inlineStr">
         <is>
-          <t>30-03-2023</t>
-        </is>
-      </c>
-      <c r="K48" s="3" t="inlineStr">
-        <is>
-          <t>04-04-2023</t>
-        </is>
-      </c>
-      <c r="L48" s="3" t="inlineStr">
-        <is>
-          <t>11-04-2023</t>
-        </is>
-      </c>
-      <c r="M48" s="3" t="inlineStr">
-        <is>
-          <t>20-04-2023</t>
-        </is>
-      </c>
-      <c r="N48" s="3" t="inlineStr">
-        <is>
-          <t>25-04-2023</t>
-        </is>
-      </c>
-      <c r="O48" s="3" t="inlineStr">
-        <is>
-          <t>09-05-2023</t>
-        </is>
-      </c>
-      <c r="P48" s="3" t="inlineStr">
-        <is>
-          <t>16-05-2023</t>
-        </is>
-      </c>
-      <c r="Q48" s="3" t="inlineStr">
-        <is>
-          <t>23-05-2023</t>
-        </is>
-      </c>
+          <t>23-02-2023</t>
+        </is>
+      </c>
+      <c r="K48" s="3" t="n"/>
+      <c r="L48" s="3" t="n"/>
+      <c r="M48" s="3" t="n"/>
+      <c r="N48" s="3" t="n"/>
+      <c r="O48" s="3" t="n"/>
+      <c r="P48" s="3" t="n"/>
+      <c r="Q48" s="3" t="n"/>
       <c r="R48" s="3" t="n"/>
       <c r="S48" s="3" t="n"/>
       <c r="T48" s="3" t="n"/>
       <c r="U48" s="3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="V48" s="3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="W48" s="3" t="n">
         <v>0</v>
@@ -18014,7 +18032,7 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>209-009</t>
+          <t>209-002</t>
         </is>
       </c>
       <c r="B49" s="3" t="n">
@@ -18032,44 +18050,40 @@
         <v>0</v>
       </c>
       <c r="F49" s="3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G49" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3" t="n">
         <v>0</v>
       </c>
       <c r="I49" s="3" t="inlineStr">
         <is>
-          <t>06-04-2023</t>
+          <t>16-02-2023</t>
         </is>
       </c>
       <c r="J49" s="3" t="inlineStr">
         <is>
-          <t>13-04-2023</t>
+          <t>23-02-2023</t>
         </is>
       </c>
       <c r="K49" s="3" t="inlineStr">
         <is>
-          <t>20-04-2023</t>
+          <t>02-03-2023</t>
         </is>
       </c>
       <c r="L49" s="3" t="inlineStr">
         <is>
-          <t>04-05-2023</t>
+          <t>09-03-2023</t>
         </is>
       </c>
       <c r="M49" s="3" t="inlineStr">
         <is>
-          <t>25-05-2023</t>
-        </is>
-      </c>
-      <c r="N49" s="3" t="inlineStr">
-        <is>
-          <t>19-06-2023</t>
-        </is>
-      </c>
+          <t>21-03-2023</t>
+        </is>
+      </c>
+      <c r="N49" s="3" t="n"/>
       <c r="O49" s="3" t="n"/>
       <c r="P49" s="3" t="n"/>
       <c r="Q49" s="3" t="n"/>
@@ -18077,10 +18091,10 @@
       <c r="S49" s="3" t="n"/>
       <c r="T49" s="3" t="n"/>
       <c r="U49" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V49" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W49" s="3" t="n">
         <v>0</v>
@@ -18089,11 +18103,11 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>209-012</t>
+          <t>209-006</t>
         </is>
       </c>
       <c r="B50" s="3" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
@@ -18101,50 +18115,42 @@
         </is>
       </c>
       <c r="D50" s="3" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E50" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F50" s="3" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G50" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H50" s="3" t="n">
         <v>0</v>
       </c>
       <c r="I50" s="3" t="inlineStr">
         <is>
-          <t>18-04-2023</t>
+          <t>23-02-2023</t>
         </is>
       </c>
       <c r="J50" s="3" t="inlineStr">
         <is>
-          <t>25-04-2023</t>
+          <t>02-03-2023</t>
         </is>
       </c>
       <c r="K50" s="3" t="inlineStr">
         <is>
-          <t>04-05-2023</t>
+          <t>09-03-2023</t>
         </is>
       </c>
       <c r="L50" s="3" t="inlineStr">
         <is>
-          <t>11-05-2023</t>
-        </is>
-      </c>
-      <c r="M50" s="3" t="inlineStr">
-        <is>
-          <t>18-05-2023</t>
-        </is>
-      </c>
-      <c r="N50" s="3" t="inlineStr">
-        <is>
-          <t>25-05-2023</t>
-        </is>
-      </c>
+          <t>16-03-2023</t>
+        </is>
+      </c>
+      <c r="M50" s="3" t="n"/>
+      <c r="N50" s="3" t="n"/>
       <c r="O50" s="3" t="n"/>
       <c r="P50" s="3" t="n"/>
       <c r="Q50" s="3" t="n"/>
@@ -18152,10 +18158,10 @@
       <c r="S50" s="3" t="n"/>
       <c r="T50" s="3" t="n"/>
       <c r="U50" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V50" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W50" s="3" t="n">
         <v>0</v>
@@ -18164,89 +18170,73 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>209-011</t>
+          <t>209-007</t>
         </is>
       </c>
       <c r="B51" s="3" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>In progress</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="D51" s="3" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="E51" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F51" s="3" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G51" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I51" s="3" t="inlineStr">
         <is>
-          <t>24-04-2023</t>
+          <t>23-02-2023</t>
         </is>
       </c>
       <c r="J51" s="3" t="inlineStr">
         <is>
-          <t>08-05-2023</t>
+          <t>02-03-2023</t>
         </is>
       </c>
       <c r="K51" s="3" t="inlineStr">
         <is>
-          <t>15-05-2023</t>
+          <t>09-03-2023</t>
         </is>
       </c>
       <c r="L51" s="3" t="inlineStr">
         <is>
-          <t>22-05-2023</t>
+          <t>16-03-2023</t>
         </is>
       </c>
       <c r="M51" s="3" t="inlineStr">
         <is>
-          <t>05-06-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="N51" s="3" t="inlineStr">
         <is>
-          <t>12-06-2023</t>
-        </is>
-      </c>
-      <c r="O51" s="3" t="inlineStr">
-        <is>
-          <t>19-06-2023</t>
-        </is>
-      </c>
-      <c r="P51" s="3" t="inlineStr">
-        <is>
-          <t>26-06-2023</t>
-        </is>
-      </c>
-      <c r="Q51" s="3" t="inlineStr">
-        <is>
-          <t>05-07-2023</t>
-        </is>
-      </c>
-      <c r="R51" s="3" t="inlineStr">
-        <is>
-          <t>10-07-2023</t>
-        </is>
-      </c>
+          <t>30-03-2023</t>
+        </is>
+      </c>
+      <c r="O51" s="3" t="n"/>
+      <c r="P51" s="3" t="n"/>
+      <c r="Q51" s="3" t="n"/>
+      <c r="R51" s="3" t="n"/>
       <c r="S51" s="3" t="n"/>
       <c r="T51" s="3" t="n"/>
       <c r="U51" s="3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="V51" s="3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W51" s="3" t="n">
         <v>0</v>
@@ -18255,126 +18245,154 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>209-013</t>
+          <t>209-005</t>
         </is>
       </c>
       <c r="B52" s="3" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>In progress</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="D52" s="3" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E52" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F52" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3" t="inlineStr">
+        <is>
+          <t>28-02-2023</t>
+        </is>
+      </c>
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>07-03-2023</t>
+        </is>
+      </c>
+      <c r="K52" s="3" t="inlineStr">
+        <is>
+          <t>14-03-2023</t>
+        </is>
+      </c>
+      <c r="L52" s="3" t="inlineStr">
+        <is>
+          <t>21-03-2023</t>
+        </is>
+      </c>
+      <c r="M52" s="3" t="inlineStr">
+        <is>
+          <t>30-03-2023</t>
+        </is>
+      </c>
+      <c r="N52" s="3" t="inlineStr">
+        <is>
+          <t>04-04-2023</t>
+        </is>
+      </c>
+      <c r="O52" s="3" t="inlineStr">
+        <is>
+          <t>11-04-2023</t>
+        </is>
+      </c>
+      <c r="P52" s="3" t="inlineStr">
+        <is>
+          <t>18-04-2023</t>
+        </is>
+      </c>
+      <c r="Q52" s="3" t="inlineStr">
+        <is>
+          <t>02-05-2023</t>
+        </is>
+      </c>
+      <c r="R52" s="3" t="inlineStr">
+        <is>
+          <t>09-05-2023</t>
+        </is>
+      </c>
+      <c r="S52" s="3" t="inlineStr">
+        <is>
+          <t>16-05-2023</t>
+        </is>
+      </c>
+      <c r="T52" s="3" t="inlineStr">
+        <is>
+          <t>23-05-2023</t>
+        </is>
+      </c>
+      <c r="U52" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="G52" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="I52" s="3" t="inlineStr">
-        <is>
-          <t>23-06-2023</t>
-        </is>
-      </c>
-      <c r="J52" s="3" t="inlineStr">
-        <is>
-          <t>07-07-2023</t>
-        </is>
-      </c>
-      <c r="K52" s="3" t="inlineStr">
-        <is>
-          <t>19-07-2023</t>
-        </is>
-      </c>
-      <c r="L52" s="3" t="inlineStr">
-        <is>
-          <t>11-08-2023</t>
-        </is>
-      </c>
-      <c r="M52" s="3" t="inlineStr">
-        <is>
-          <t>not_match</t>
-        </is>
-      </c>
-      <c r="N52" s="3" t="n"/>
-      <c r="O52" s="3" t="n"/>
-      <c r="P52" s="3" t="n"/>
-      <c r="Q52" s="3" t="n"/>
-      <c r="R52" s="3" t="n"/>
-      <c r="S52" s="3" t="n"/>
-      <c r="T52" s="3" t="n"/>
-      <c r="U52" s="3" t="n">
-        <v>4</v>
-      </c>
       <c r="V52" s="3" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="W52" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>209-014</t>
+          <t>209-003</t>
         </is>
       </c>
       <c r="B53" s="3" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>In progress</t>
+          <t>Withdrawn (SAE)</t>
         </is>
       </c>
       <c r="D53" s="3" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E53" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F53" s="3" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G53" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I53" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>28-02-2023</t>
         </is>
       </c>
       <c r="J53" s="3" t="inlineStr">
         <is>
-          <t>11-07-2023</t>
+          <t>14-03-2023</t>
         </is>
       </c>
       <c r="K53" s="3" t="inlineStr">
         <is>
-          <t>22-08-2023</t>
+          <t>30-03-2023</t>
         </is>
       </c>
       <c r="L53" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>11-04-2023</t>
         </is>
       </c>
       <c r="M53" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>25-04-2023</t>
         </is>
       </c>
       <c r="N53" s="3" t="n"/>
@@ -18385,19 +18403,19 @@
       <c r="S53" s="3" t="n"/>
       <c r="T53" s="3" t="n"/>
       <c r="U53" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V53" s="3" t="n">
         <v>5</v>
       </c>
       <c r="W53" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>209-016</t>
+          <t>209-004</t>
         </is>
       </c>
       <c r="B54" s="3" t="n">
@@ -18405,35 +18423,39 @@
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Completed </t>
+          <t>Withdrawn (SAE)</t>
         </is>
       </c>
       <c r="D54" s="3" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E54" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G54" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>02-03-2023</t>
         </is>
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
-          <t>19-07-2023</t>
-        </is>
-      </c>
-      <c r="K54" s="3" t="n"/>
+          <t>23-03-2023</t>
+        </is>
+      </c>
+      <c r="K54" s="3" t="inlineStr">
+        <is>
+          <t>20-04-2023</t>
+        </is>
+      </c>
       <c r="L54" s="3" t="n"/>
       <c r="M54" s="3" t="n"/>
       <c r="N54" s="3" t="n"/>
@@ -18444,94 +18466,110 @@
       <c r="S54" s="3" t="n"/>
       <c r="T54" s="3" t="n"/>
       <c r="U54" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V54" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W54" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>209-015</t>
+          <t>209-008</t>
         </is>
       </c>
       <c r="B55" s="3" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>In progress</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="D55" s="3" t="n">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="E55" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F55" s="3" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G55" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I55" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>07-03-2023</t>
         </is>
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
-          <t>19-07-2023</t>
+          <t>30-03-2023</t>
         </is>
       </c>
       <c r="K55" s="3" t="inlineStr">
         <is>
-          <t>04-08-2023</t>
+          <t>04-04-2023</t>
         </is>
       </c>
       <c r="L55" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>11-04-2023</t>
         </is>
       </c>
       <c r="M55" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
-        </is>
-      </c>
-      <c r="N55" s="3" t="n"/>
-      <c r="O55" s="3" t="n"/>
-      <c r="P55" s="3" t="n"/>
-      <c r="Q55" s="3" t="n"/>
+          <t>20-04-2023</t>
+        </is>
+      </c>
+      <c r="N55" s="3" t="inlineStr">
+        <is>
+          <t>25-04-2023</t>
+        </is>
+      </c>
+      <c r="O55" s="3" t="inlineStr">
+        <is>
+          <t>09-05-2023</t>
+        </is>
+      </c>
+      <c r="P55" s="3" t="inlineStr">
+        <is>
+          <t>16-05-2023</t>
+        </is>
+      </c>
+      <c r="Q55" s="3" t="inlineStr">
+        <is>
+          <t>23-05-2023</t>
+        </is>
+      </c>
       <c r="R55" s="3" t="n"/>
       <c r="S55" s="3" t="n"/>
       <c r="T55" s="3" t="n"/>
       <c r="U55" s="3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V55" s="3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="W55" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>209-018</t>
+          <t>209-009</t>
         </is>
       </c>
       <c r="B56" s="3" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
@@ -18539,34 +18577,50 @@
         </is>
       </c>
       <c r="D56" s="3" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E56" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F56" s="3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G56" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>06-04-2023</t>
         </is>
       </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
-          <t>29-08-2023</t>
-        </is>
-      </c>
-      <c r="K56" s="3" t="n"/>
-      <c r="L56" s="3" t="n"/>
-      <c r="M56" s="3" t="n"/>
-      <c r="N56" s="3" t="n"/>
+          <t>13-04-2023</t>
+        </is>
+      </c>
+      <c r="K56" s="3" t="inlineStr">
+        <is>
+          <t>20-04-2023</t>
+        </is>
+      </c>
+      <c r="L56" s="3" t="inlineStr">
+        <is>
+          <t>04-05-2023</t>
+        </is>
+      </c>
+      <c r="M56" s="3" t="inlineStr">
+        <is>
+          <t>25-05-2023</t>
+        </is>
+      </c>
+      <c r="N56" s="3" t="inlineStr">
+        <is>
+          <t>19-06-2023</t>
+        </is>
+      </c>
       <c r="O56" s="3" t="n"/>
       <c r="P56" s="3" t="n"/>
       <c r="Q56" s="3" t="n"/>
@@ -18574,66 +18628,74 @@
       <c r="S56" s="3" t="n"/>
       <c r="T56" s="3" t="n"/>
       <c r="U56" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V56" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W56" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>209-019</t>
+          <t>209-012</t>
         </is>
       </c>
       <c r="B57" s="3" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>In progress</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="D57" s="3" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E57" s="3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F57" s="3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G57" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>18-04-2023</t>
         </is>
       </c>
       <c r="J57" s="3" t="inlineStr">
         <is>
-          <t>29-08-2023</t>
+          <t>25-04-2023</t>
         </is>
       </c>
       <c r="K57" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>04-05-2023</t>
         </is>
       </c>
       <c r="L57" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
-        </is>
-      </c>
-      <c r="M57" s="3" t="n"/>
-      <c r="N57" s="3" t="n"/>
+          <t>11-05-2023</t>
+        </is>
+      </c>
+      <c r="M57" s="3" t="inlineStr">
+        <is>
+          <t>18-05-2023</t>
+        </is>
+      </c>
+      <c r="N57" s="3" t="inlineStr">
+        <is>
+          <t>25-05-2023</t>
+        </is>
+      </c>
       <c r="O57" s="3" t="n"/>
       <c r="P57" s="3" t="n"/>
       <c r="Q57" s="3" t="n"/>
@@ -18641,64 +18703,114 @@
       <c r="S57" s="3" t="n"/>
       <c r="T57" s="3" t="n"/>
       <c r="U57" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V57" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W57" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>209-017</t>
+          <t>209-011</t>
         </is>
       </c>
       <c r="B58" s="3" t="n">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
           <t>In progress</t>
         </is>
       </c>
-      <c r="D58" s="3" t="n"/>
-      <c r="E58" s="3" t="n"/>
-      <c r="F58" s="3" t="n"/>
-      <c r="G58" s="3" t="n"/>
-      <c r="H58" s="3" t="n"/>
+      <c r="D58" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="n">
+        <v>23</v>
+      </c>
       <c r="I58" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
-        </is>
-      </c>
-      <c r="J58" s="3" t="n"/>
-      <c r="K58" s="3" t="n"/>
-      <c r="L58" s="3" t="n"/>
-      <c r="M58" s="3" t="n"/>
-      <c r="N58" s="3" t="n"/>
-      <c r="O58" s="3" t="n"/>
-      <c r="P58" s="3" t="n"/>
-      <c r="Q58" s="3" t="n"/>
-      <c r="R58" s="3" t="n"/>
+          <t>24-04-2023</t>
+        </is>
+      </c>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>08-05-2023</t>
+        </is>
+      </c>
+      <c r="K58" s="3" t="inlineStr">
+        <is>
+          <t>15-05-2023</t>
+        </is>
+      </c>
+      <c r="L58" s="3" t="inlineStr">
+        <is>
+          <t>22-05-2023</t>
+        </is>
+      </c>
+      <c r="M58" s="3" t="inlineStr">
+        <is>
+          <t>05-06-2023</t>
+        </is>
+      </c>
+      <c r="N58" s="3" t="inlineStr">
+        <is>
+          <t>12-06-2023</t>
+        </is>
+      </c>
+      <c r="O58" s="3" t="inlineStr">
+        <is>
+          <t>19-06-2023</t>
+        </is>
+      </c>
+      <c r="P58" s="3" t="inlineStr">
+        <is>
+          <t>26-06-2023</t>
+        </is>
+      </c>
+      <c r="Q58" s="3" t="inlineStr">
+        <is>
+          <t>05-07-2023</t>
+        </is>
+      </c>
+      <c r="R58" s="3" t="inlineStr">
+        <is>
+          <t>10-07-2023</t>
+        </is>
+      </c>
       <c r="S58" s="3" t="n"/>
       <c r="T58" s="3" t="n"/>
-      <c r="U58" s="3" t="n"/>
+      <c r="U58" s="3" t="n">
+        <v>10</v>
+      </c>
       <c r="V58" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W58" s="3" t="n"/>
+        <v>10</v>
+      </c>
+      <c r="W58" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>210-001</t>
+          <t>209-013</t>
         </is>
       </c>
       <c r="B59" s="3" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
@@ -18706,37 +18818,45 @@
         </is>
       </c>
       <c r="D59" s="3" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E59" s="3" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G59" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I59" s="3" t="inlineStr">
         <is>
-          <t>13-04-2023</t>
+          <t>23-06-2023</t>
         </is>
       </c>
       <c r="J59" s="3" t="inlineStr">
         <is>
-          <t>20-04-2023</t>
+          <t>07-07-2023</t>
         </is>
       </c>
       <c r="K59" s="3" t="inlineStr">
         <is>
-          <t>27-04-2023</t>
-        </is>
-      </c>
-      <c r="L59" s="3" t="n"/>
-      <c r="M59" s="3" t="n"/>
+          <t>19-07-2023</t>
+        </is>
+      </c>
+      <c r="L59" s="3" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="M59" s="3" t="inlineStr">
+        <is>
+          <t>not_match</t>
+        </is>
+      </c>
       <c r="N59" s="3" t="n"/>
       <c r="O59" s="3" t="n"/>
       <c r="P59" s="3" t="n"/>
@@ -18745,23 +18865,23 @@
       <c r="S59" s="3" t="n"/>
       <c r="T59" s="3" t="n"/>
       <c r="U59" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V59" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W59" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>210-002</t>
+          <t>209-014</t>
         </is>
       </c>
       <c r="B60" s="3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
@@ -18769,33 +18889,45 @@
         </is>
       </c>
       <c r="D60" s="3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E60" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F60" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="G60" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" s="3" t="inlineStr">
         <is>
-          <t>20-04-2023</t>
+          <t>not_match</t>
         </is>
       </c>
       <c r="J60" s="3" t="inlineStr">
         <is>
-          <t>27-04-2023</t>
-        </is>
-      </c>
-      <c r="K60" s="3" t="n"/>
-      <c r="L60" s="3" t="n"/>
-      <c r="M60" s="3" t="n"/>
+          <t>11-07-2023</t>
+        </is>
+      </c>
+      <c r="K60" s="3" t="inlineStr">
+        <is>
+          <t>22-08-2023</t>
+        </is>
+      </c>
+      <c r="L60" s="3" t="inlineStr">
+        <is>
+          <t>not_match</t>
+        </is>
+      </c>
+      <c r="M60" s="3" t="inlineStr">
+        <is>
+          <t>not_match</t>
+        </is>
+      </c>
       <c r="N60" s="3" t="n"/>
       <c r="O60" s="3" t="n"/>
       <c r="P60" s="3" t="n"/>
@@ -18807,99 +18939,79 @@
         <v>2</v>
       </c>
       <c r="V60" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W60" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>210-003</t>
+          <t>209-016</t>
         </is>
       </c>
       <c r="B61" s="3" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>In progress</t>
+          <t xml:space="preserve">Completed </t>
         </is>
       </c>
       <c r="D61" s="3" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E61" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F61" s="3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3" t="n">
         <v>4</v>
       </c>
       <c r="I61" s="3" t="inlineStr">
         <is>
-          <t>20-04-2023</t>
+          <t>not_match</t>
         </is>
       </c>
       <c r="J61" s="3" t="inlineStr">
         <is>
-          <t>27-04-2023</t>
-        </is>
-      </c>
-      <c r="K61" s="3" t="inlineStr">
-        <is>
-          <t>04-05-2023</t>
-        </is>
-      </c>
-      <c r="L61" s="3" t="inlineStr">
-        <is>
-          <t>11-05-2023</t>
-        </is>
-      </c>
-      <c r="M61" s="3" t="inlineStr">
-        <is>
-          <t>18-05-2023</t>
-        </is>
-      </c>
-      <c r="N61" s="3" t="inlineStr">
-        <is>
-          <t>25-05-2023</t>
-        </is>
-      </c>
-      <c r="O61" s="3" t="inlineStr">
-        <is>
-          <t>01-06-2023</t>
-        </is>
-      </c>
+          <t>19-07-2023</t>
+        </is>
+      </c>
+      <c r="K61" s="3" t="n"/>
+      <c r="L61" s="3" t="n"/>
+      <c r="M61" s="3" t="n"/>
+      <c r="N61" s="3" t="n"/>
+      <c r="O61" s="3" t="n"/>
       <c r="P61" s="3" t="n"/>
       <c r="Q61" s="3" t="n"/>
       <c r="R61" s="3" t="n"/>
       <c r="S61" s="3" t="n"/>
       <c r="T61" s="3" t="n"/>
       <c r="U61" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V61" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W61" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>210-004</t>
+          <t>209-015</t>
         </is>
       </c>
       <c r="B62" s="3" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
@@ -18907,50 +19019,46 @@
         </is>
       </c>
       <c r="D62" s="3" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E62" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F62" s="3" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I62" s="3" t="inlineStr">
         <is>
-          <t>27-04-2023</t>
+          <t>not_match</t>
         </is>
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
-          <t>04-05-2023</t>
+          <t>19-07-2023</t>
         </is>
       </c>
       <c r="K62" s="3" t="inlineStr">
         <is>
-          <t>11-05-2023</t>
+          <t>04-08-2023</t>
         </is>
       </c>
       <c r="L62" s="3" t="inlineStr">
         <is>
-          <t>18-05-2023</t>
+          <t>not_match</t>
         </is>
       </c>
       <c r="M62" s="3" t="inlineStr">
         <is>
-          <t>25-05-2023</t>
-        </is>
-      </c>
-      <c r="N62" s="3" t="inlineStr">
-        <is>
-          <t>01-06-2023</t>
-        </is>
-      </c>
+          <t>not_match</t>
+        </is>
+      </c>
+      <c r="N62" s="3" t="n"/>
       <c r="O62" s="3" t="n"/>
       <c r="P62" s="3" t="n"/>
       <c r="Q62" s="3" t="n"/>
@@ -18958,34 +19066,34 @@
       <c r="S62" s="3" t="n"/>
       <c r="T62" s="3" t="n"/>
       <c r="U62" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V62" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W62" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>210-005</t>
+          <t>209-018</t>
         </is>
       </c>
       <c r="B63" s="3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>In progress</t>
+          <t>Withdrawn (SAE)</t>
         </is>
       </c>
       <c r="D63" s="3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E63" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F63" s="3" t="n">
         <v>0</v>
@@ -18994,16 +19102,16 @@
         <v>0</v>
       </c>
       <c r="H63" s="3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I63" s="3" t="inlineStr">
         <is>
-          <t>27-07-2023</t>
+          <t>not_match</t>
         </is>
       </c>
       <c r="J63" s="3" t="inlineStr">
         <is>
-          <t>02-08-2023</t>
+          <t>29-08-2023</t>
         </is>
       </c>
       <c r="K63" s="3" t="n"/>
@@ -19017,56 +19125,64 @@
       <c r="S63" s="3" t="n"/>
       <c r="T63" s="3" t="n"/>
       <c r="U63" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V63" s="3" t="n">
         <v>2</v>
       </c>
       <c r="W63" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>211-001</t>
+          <t>209-019</t>
         </is>
       </c>
       <c r="B64" s="3" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>Lost to follow up</t>
+          <t>In progress</t>
         </is>
       </c>
       <c r="D64" s="3" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E64" s="3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F64" s="3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G64" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H64" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I64" s="3" t="inlineStr">
         <is>
-          <t>08-05-2023</t>
+          <t>not_match</t>
         </is>
       </c>
       <c r="J64" s="3" t="inlineStr">
         <is>
-          <t>23-05-2023</t>
-        </is>
-      </c>
-      <c r="K64" s="3" t="n"/>
-      <c r="L64" s="3" t="n"/>
+          <t>29-08-2023</t>
+        </is>
+      </c>
+      <c r="K64" s="3" t="inlineStr">
+        <is>
+          <t>not_match</t>
+        </is>
+      </c>
+      <c r="L64" s="3" t="inlineStr">
+        <is>
+          <t>not_match</t>
+        </is>
+      </c>
       <c r="M64" s="3" t="n"/>
       <c r="N64" s="3" t="n"/>
       <c r="O64" s="3" t="n"/>
@@ -19076,59 +19192,41 @@
       <c r="S64" s="3" t="n"/>
       <c r="T64" s="3" t="n"/>
       <c r="U64" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V64" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W64" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>211-003</t>
+          <t>209-017</t>
         </is>
       </c>
       <c r="B65" s="3" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
           <t>In progress</t>
         </is>
       </c>
-      <c r="D65" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="E65" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="G65" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="D65" s="3" t="n"/>
+      <c r="E65" s="3" t="n"/>
+      <c r="F65" s="3" t="n"/>
+      <c r="G65" s="3" t="n"/>
+      <c r="H65" s="3" t="n"/>
       <c r="I65" s="3" t="inlineStr">
         <is>
-          <t>12-07-2023</t>
-        </is>
-      </c>
-      <c r="J65" s="3" t="inlineStr">
-        <is>
-          <t>24-07-2023</t>
-        </is>
-      </c>
-      <c r="K65" s="3" t="inlineStr">
-        <is>
           <t>not_match</t>
         </is>
       </c>
+      <c r="J65" s="3" t="n"/>
+      <c r="K65" s="3" t="n"/>
       <c r="L65" s="3" t="n"/>
       <c r="M65" s="3" t="n"/>
       <c r="N65" s="3" t="n"/>
@@ -19138,24 +19236,20 @@
       <c r="R65" s="3" t="n"/>
       <c r="S65" s="3" t="n"/>
       <c r="T65" s="3" t="n"/>
-      <c r="U65" s="3" t="n">
-        <v>2</v>
-      </c>
+      <c r="U65" s="3" t="n"/>
       <c r="V65" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="W65" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="W65" s="3" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>211-002</t>
+          <t>210-001</t>
         </is>
       </c>
       <c r="B66" s="3" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
@@ -19163,33 +19257,33 @@
         </is>
       </c>
       <c r="D66" s="3" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E66" s="3" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F66" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G66" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I66" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>13-04-2023</t>
         </is>
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
-          <t>21-07-2023</t>
+          <t>20-04-2023</t>
         </is>
       </c>
       <c r="K66" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>27-04-2023</t>
         </is>
       </c>
       <c r="L66" s="3" t="n"/>
@@ -19202,23 +19296,23 @@
       <c r="S66" s="3" t="n"/>
       <c r="T66" s="3" t="n"/>
       <c r="U66" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V66" s="3" t="n">
         <v>3</v>
       </c>
       <c r="W66" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>211-004</t>
+          <t>210-002</t>
         </is>
       </c>
       <c r="B67" s="3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
@@ -19226,28 +19320,28 @@
         </is>
       </c>
       <c r="D67" s="3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E67" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F67" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G67" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H67" s="3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I67" s="3" t="inlineStr">
         <is>
-          <t>28-07-2023</t>
+          <t>20-04-2023</t>
         </is>
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
-          <t>11-08-2023</t>
+          <t>27-04-2023</t>
         </is>
       </c>
       <c r="K67" s="3" t="n"/>
@@ -19273,11 +19367,11 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>211-005</t>
+          <t>210-003</t>
         </is>
       </c>
       <c r="B68" s="3" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
@@ -19285,70 +19379,78 @@
         </is>
       </c>
       <c r="D68" s="3" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E68" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F68" s="3" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G68" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I68" s="3" t="inlineStr">
         <is>
-          <t>04-08-2023</t>
+          <t>20-04-2023</t>
         </is>
       </c>
       <c r="J68" s="3" t="inlineStr">
         <is>
-          <t>11-08-2023</t>
+          <t>27-04-2023</t>
         </is>
       </c>
       <c r="K68" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>04-05-2023</t>
         </is>
       </c>
       <c r="L68" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>11-05-2023</t>
         </is>
       </c>
       <c r="M68" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
-        </is>
-      </c>
-      <c r="N68" s="3" t="n"/>
-      <c r="O68" s="3" t="n"/>
+          <t>18-05-2023</t>
+        </is>
+      </c>
+      <c r="N68" s="3" t="inlineStr">
+        <is>
+          <t>25-05-2023</t>
+        </is>
+      </c>
+      <c r="O68" s="3" t="inlineStr">
+        <is>
+          <t>01-06-2023</t>
+        </is>
+      </c>
       <c r="P68" s="3" t="n"/>
       <c r="Q68" s="3" t="n"/>
       <c r="R68" s="3" t="n"/>
       <c r="S68" s="3" t="n"/>
       <c r="T68" s="3" t="n"/>
       <c r="U68" s="3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V68" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W68" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>211-006</t>
+          <t>210-004</t>
         </is>
       </c>
       <c r="B69" s="3" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
@@ -19356,46 +19458,50 @@
         </is>
       </c>
       <c r="D69" s="3" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E69" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F69" s="3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G69" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I69" s="3" t="inlineStr">
         <is>
-          <t>09-08-2023</t>
+          <t>27-04-2023</t>
         </is>
       </c>
       <c r="J69" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>04-05-2023</t>
         </is>
       </c>
       <c r="K69" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>11-05-2023</t>
         </is>
       </c>
       <c r="L69" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
+          <t>18-05-2023</t>
         </is>
       </c>
       <c r="M69" s="3" t="inlineStr">
         <is>
-          <t>not_match</t>
-        </is>
-      </c>
-      <c r="N69" s="3" t="n"/>
+          <t>25-05-2023</t>
+        </is>
+      </c>
+      <c r="N69" s="3" t="inlineStr">
+        <is>
+          <t>01-06-2023</t>
+        </is>
+      </c>
       <c r="O69" s="3" t="n"/>
       <c r="P69" s="3" t="n"/>
       <c r="Q69" s="3" t="n"/>
@@ -19403,12 +19509,457 @@
       <c r="S69" s="3" t="n"/>
       <c r="T69" s="3" t="n"/>
       <c r="U69" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="V69" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="W69" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>210-005</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>In progress</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="I70" s="3" t="inlineStr">
+        <is>
+          <t>27-07-2023</t>
+        </is>
+      </c>
+      <c r="J70" s="3" t="inlineStr">
+        <is>
+          <t>02-08-2023</t>
+        </is>
+      </c>
+      <c r="K70" s="3" t="n"/>
+      <c r="L70" s="3" t="n"/>
+      <c r="M70" s="3" t="n"/>
+      <c r="N70" s="3" t="n"/>
+      <c r="O70" s="3" t="n"/>
+      <c r="P70" s="3" t="n"/>
+      <c r="Q70" s="3" t="n"/>
+      <c r="R70" s="3" t="n"/>
+      <c r="S70" s="3" t="n"/>
+      <c r="T70" s="3" t="n"/>
+      <c r="U70" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="W70" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>211-001</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>Lost to follow up</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G71" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" s="3" t="inlineStr">
+        <is>
+          <t>08-05-2023</t>
+        </is>
+      </c>
+      <c r="J71" s="3" t="inlineStr">
+        <is>
+          <t>23-05-2023</t>
+        </is>
+      </c>
+      <c r="K71" s="3" t="n"/>
+      <c r="L71" s="3" t="n"/>
+      <c r="M71" s="3" t="n"/>
+      <c r="N71" s="3" t="n"/>
+      <c r="O71" s="3" t="n"/>
+      <c r="P71" s="3" t="n"/>
+      <c r="Q71" s="3" t="n"/>
+      <c r="R71" s="3" t="n"/>
+      <c r="S71" s="3" t="n"/>
+      <c r="T71" s="3" t="n"/>
+      <c r="U71" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="W71" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>211-003</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>In progress</t>
+        </is>
+      </c>
+      <c r="D72" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E72" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G72" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3" t="inlineStr">
+        <is>
+          <t>12-07-2023</t>
+        </is>
+      </c>
+      <c r="J72" s="3" t="inlineStr">
+        <is>
+          <t>24-07-2023</t>
+        </is>
+      </c>
+      <c r="K72" s="3" t="inlineStr">
+        <is>
+          <t>not_match</t>
+        </is>
+      </c>
+      <c r="L72" s="3" t="n"/>
+      <c r="M72" s="3" t="n"/>
+      <c r="N72" s="3" t="n"/>
+      <c r="O72" s="3" t="n"/>
+      <c r="P72" s="3" t="n"/>
+      <c r="Q72" s="3" t="n"/>
+      <c r="R72" s="3" t="n"/>
+      <c r="S72" s="3" t="n"/>
+      <c r="T72" s="3" t="n"/>
+      <c r="U72" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="W72" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="V69" s="3" t="n">
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>211-002</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="W69" s="3" t="n">
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>In progress</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I73" s="3" t="inlineStr">
+        <is>
+          <t>not_match</t>
+        </is>
+      </c>
+      <c r="J73" s="3" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="K73" s="3" t="inlineStr">
+        <is>
+          <t>not_match</t>
+        </is>
+      </c>
+      <c r="L73" s="3" t="n"/>
+      <c r="M73" s="3" t="n"/>
+      <c r="N73" s="3" t="n"/>
+      <c r="O73" s="3" t="n"/>
+      <c r="P73" s="3" t="n"/>
+      <c r="Q73" s="3" t="n"/>
+      <c r="R73" s="3" t="n"/>
+      <c r="S73" s="3" t="n"/>
+      <c r="T73" s="3" t="n"/>
+      <c r="U73" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="W73" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="inlineStr">
+        <is>
+          <t>211-004</t>
+        </is>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>In progress</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E74" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="I74" s="3" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="J74" s="3" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="K74" s="3" t="n"/>
+      <c r="L74" s="3" t="n"/>
+      <c r="M74" s="3" t="n"/>
+      <c r="N74" s="3" t="n"/>
+      <c r="O74" s="3" t="n"/>
+      <c r="P74" s="3" t="n"/>
+      <c r="Q74" s="3" t="n"/>
+      <c r="R74" s="3" t="n"/>
+      <c r="S74" s="3" t="n"/>
+      <c r="T74" s="3" t="n"/>
+      <c r="U74" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="W74" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>211-005</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t>In progress</t>
+        </is>
+      </c>
+      <c r="D75" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="E75" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G75" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I75" s="3" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="J75" s="3" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="K75" s="3" t="inlineStr">
+        <is>
+          <t>not_match</t>
+        </is>
+      </c>
+      <c r="L75" s="3" t="inlineStr">
+        <is>
+          <t>not_match</t>
+        </is>
+      </c>
+      <c r="M75" s="3" t="inlineStr">
+        <is>
+          <t>not_match</t>
+        </is>
+      </c>
+      <c r="N75" s="3" t="n"/>
+      <c r="O75" s="3" t="n"/>
+      <c r="P75" s="3" t="n"/>
+      <c r="Q75" s="3" t="n"/>
+      <c r="R75" s="3" t="n"/>
+      <c r="S75" s="3" t="n"/>
+      <c r="T75" s="3" t="n"/>
+      <c r="U75" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="W75" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="inlineStr">
+        <is>
+          <t>211-006</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t>In progress</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I76" s="3" t="inlineStr">
+        <is>
+          <t>09-08-2023</t>
+        </is>
+      </c>
+      <c r="J76" s="3" t="inlineStr">
+        <is>
+          <t>not_match</t>
+        </is>
+      </c>
+      <c r="K76" s="3" t="inlineStr">
+        <is>
+          <t>not_match</t>
+        </is>
+      </c>
+      <c r="L76" s="3" t="inlineStr">
+        <is>
+          <t>not_match</t>
+        </is>
+      </c>
+      <c r="M76" s="3" t="inlineStr">
+        <is>
+          <t>not_match</t>
+        </is>
+      </c>
+      <c r="N76" s="3" t="n"/>
+      <c r="O76" s="3" t="n"/>
+      <c r="P76" s="3" t="n"/>
+      <c r="Q76" s="3" t="n"/>
+      <c r="R76" s="3" t="n"/>
+      <c r="S76" s="3" t="n"/>
+      <c r="T76" s="3" t="n"/>
+      <c r="U76" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3" t="n">
         <v>4</v>
       </c>
     </row>
